--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>779695.331972095</v>
+        <v>773281.9389429861</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5613958.970297864</v>
+        <v>5613958.970297863</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="E11" t="n">
-        <v>56.95632731850572</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="F11" t="n">
-        <v>271.4556664364261</v>
+        <v>118.7029436421466</v>
       </c>
       <c r="G11" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.74661632364075</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>21.94859268528468</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>77.33396703945355</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12.95708249806247</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>171.0069088760509</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8938438009787</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>103.9030201836732</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.21212118261</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6964642944951</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>83.31659142240446</v>
+        <v>83.31659142240444</v>
       </c>
       <c r="S13" t="n">
-        <v>185.5382042379848</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.6230152996731</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>262.9566761361907</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>177.3515346735632</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="F14" t="n">
-        <v>271.455666436426</v>
+        <v>239.0981509972042</v>
       </c>
       <c r="G14" t="n">
-        <v>271.455666436426</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="H14" t="n">
-        <v>271.455666436426</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.74661632364075</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>118.4944091802437</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>46.28754747924575</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>114.1940803859624</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>171.0069088760509</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8938438009787</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6964642944951</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.4483691655308</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>83.31659142240446</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>149.9845686667288</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>200.9667778782458</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.7260929076276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0391405265871</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>271.455666436426</v>
+        <v>239.098150997204</v>
       </c>
       <c r="W17" t="n">
-        <v>271.455666436426</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="X17" t="n">
-        <v>44.78858399941541</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>79.13053314414715</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -1940,10 +1940,10 @@
         <v>117.8154648239328</v>
       </c>
       <c r="H18" t="n">
-        <v>77.33396703945355</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>12.95708249806247</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>171.0069088760509</v>
       </c>
       <c r="U18" t="n">
-        <v>207.8938438009787</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>93.99428884612063</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.1087453375515</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>17.61125040657312</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>185.5382042379848</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.6230152996731</v>
       </c>
       <c r="U19" t="n">
-        <v>271.455666436426</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>271.4556664364261</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
         <v>271.4556664364261</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>120.3952073550576</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>118.7029436421464</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>271.4556664364261</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>239.098150997204</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>98.08776954097593</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>77.33396703945355</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>114.1940803859624</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2228,7 +2228,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>90.24785043312637</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>154.7447535969027</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>63.87832720185789</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>83.31659142240446</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>185.5382042379848</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6230152996731</v>
       </c>
       <c r="U22" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>271.4556664364262</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>26.3720580895766</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.7260929076276</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0391405265871</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>271.4556664364262</v>
-      </c>
-      <c r="W23" t="n">
-        <v>257.5146769070433</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>8.904990033905154</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>30.39528342572235</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69.18552023264493</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.1437838228612</v>
+        <v>61.69606146826154</v>
       </c>
       <c r="I25" t="n">
-        <v>105.4483691655308</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.31659142240446</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>185.5382042379848</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>271.4556664364262</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>44.78858399941576</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.7260929076276</v>
       </c>
       <c r="U26" t="n">
-        <v>239.0981509972041</v>
+        <v>253.0391405265871</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>18.36599094956944</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>12.95708249806247</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>114.1940803859624</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>133.795545705925</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>17.61125040657318</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.6230152996731</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>94.90890351454364</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="E29" t="n">
-        <v>271.4556664364262</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>26.37205808957668</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.7260929076276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>239.098150997204</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>76.15535151221164</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>171.0069088760509</v>
+        <v>32.50554985607781</v>
       </c>
       <c r="U30" t="n">
         <v>207.8938438009787</v>
@@ -2936,10 +2936,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>149.7957894002994</v>
+        <v>127.0682204597175</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6964642944951</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>185.5382042379848</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>271.4556664364261</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.7260929076276</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>26.37205808957646</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>239.098150997204</v>
+        <v>271.4556664364261</v>
       </c>
     </row>
     <row r="33">
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.8154648239328</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>12.95708249806247</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8938438009787</v>
+        <v>194.9592756829073</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>95.83254422536312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>77.79687131529435</v>
+        <v>165.6964642944951</v>
       </c>
       <c r="H34" t="n">
-        <v>146.1437838228612</v>
+        <v>140.5813661912602</v>
       </c>
       <c r="I34" t="n">
-        <v>105.4483691655308</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.31659142240446</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.5382042379848</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="C35" t="n">
-        <v>271.4556664364263</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="D35" t="n">
-        <v>271.4556664364263</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="E35" t="n">
-        <v>271.4556664364263</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>239.0981509972042</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>239.098150997204</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.8154648239328</v>
       </c>
       <c r="H36" t="n">
-        <v>32.5055498560784</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>114.1940803859624</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>171.0069088760509</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8938438009787</v>
+        <v>138.6066439688011</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.1437838228612</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.4483691655308</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.31659142240446</v>
       </c>
       <c r="S37" t="n">
         <v>185.5382042379848</v>
       </c>
       <c r="T37" t="n">
-        <v>229.6230152996731</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>252.487629807468</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>208.7624594638737</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>271.4556664364261</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.4556664364261</v>
+        <v>44.78858399941574</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>212.7260929076276</v>
       </c>
       <c r="U38" t="n">
-        <v>26.37205808957646</v>
+        <v>253.0391405265871</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>117.8154648239328</v>
       </c>
       <c r="H39" t="n">
-        <v>77.33396703945355</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>12.95708249806247</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>114.1940803859624</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>88.09142771229274</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>179.6630768511536</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3663,13 +3663,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>105.7109783386113</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>83.31659142240446</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.6230152996731</v>
       </c>
       <c r="U40" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.8306631692033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="G41" t="n">
         <v>271.4556664364262</v>
       </c>
       <c r="H41" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>120.3952073550576</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.7260929076276</v>
       </c>
       <c r="U41" t="n">
-        <v>118.7029436421465</v>
+        <v>177.4325171709451</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>115.1823107531453</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>67.45346608245174</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8154648239328</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>77.33396703945355</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6964642944951</v>
       </c>
       <c r="H43" t="n">
-        <v>29.66037617202115</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>105.4483691655308</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.31659142240446</v>
       </c>
       <c r="S43" t="n">
         <v>185.5382042379848</v>
@@ -3954,10 +3954,10 @@
         <v>229.6230152996731</v>
       </c>
       <c r="U43" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>52.10298689154757</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>239.0981509972042</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>44.78858399941547</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.7260929076276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0391405265871</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>271.4556664364262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.50554985607818</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.8154648239328</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12.95708249806247</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>171.0069088760509</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8938438009787</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4121,10 +4121,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>97.43297434355866</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>96.79761826537622</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.6964642944951</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.5382042379848</v>
       </c>
       <c r="T46" t="n">
         <v>229.6230152996731</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>52.51224673126661</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="C11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="D11" t="n">
-        <v>964.2113451850402</v>
+        <v>690.013702319964</v>
       </c>
       <c r="E11" t="n">
-        <v>906.6797014289738</v>
+        <v>415.8160594548868</v>
       </c>
       <c r="F11" t="n">
-        <v>632.4820585638969</v>
+        <v>295.9140961799912</v>
       </c>
       <c r="G11" t="n">
-        <v>358.28441569882</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="H11" t="n">
-        <v>84.08677283374313</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="I11" t="n">
-        <v>21.71645331491409</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="J11" t="n">
-        <v>69.12703774963856</v>
+        <v>69.1270377496387</v>
       </c>
       <c r="K11" t="n">
-        <v>173.163250751011</v>
+        <v>173.1632507510113</v>
       </c>
       <c r="L11" t="n">
-        <v>326.2155176981178</v>
+        <v>326.2155176981183</v>
       </c>
       <c r="M11" t="n">
-        <v>517.1007890301216</v>
+        <v>517.1007890301223</v>
       </c>
       <c r="N11" t="n">
-        <v>714.0737590629258</v>
+        <v>714.0737590629262</v>
       </c>
       <c r="O11" t="n">
-        <v>891.4018293582278</v>
+        <v>891.4018293582285</v>
       </c>
       <c r="P11" t="n">
         <v>1020.321584167045</v>
       </c>
       <c r="Q11" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R11" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="T11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="U11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="V11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="W11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="X11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.2113451850402</v>
+        <v>964.2113451850411</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>135.0898292975411</v>
+        <v>172.3706837548219</v>
       </c>
       <c r="C12" t="n">
-        <v>135.0898292975411</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="D12" t="n">
-        <v>135.0898292975411</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0898292975411</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="F12" t="n">
-        <v>135.0898292975411</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="G12" t="n">
-        <v>112.9195336558394</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="H12" t="n">
-        <v>34.80441543416911</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="I12" t="n">
-        <v>21.71645331491409</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="J12" t="n">
-        <v>37.72227208717188</v>
+        <v>37.72227208717194</v>
       </c>
       <c r="K12" t="n">
-        <v>115.8794018094668</v>
+        <v>115.8794018094669</v>
       </c>
       <c r="L12" t="n">
-        <v>251.0809596608198</v>
+        <v>251.0809596608201</v>
       </c>
       <c r="M12" t="n">
-        <v>519.8220694328817</v>
+        <v>421.4367649398205</v>
       </c>
       <c r="N12" t="n">
-        <v>704.0523051633337</v>
+        <v>605.6670006702726</v>
       </c>
       <c r="O12" t="n">
-        <v>858.1441116795162</v>
+        <v>759.7588071864552</v>
       </c>
       <c r="P12" t="n">
-        <v>969.2498783242547</v>
+        <v>870.8645738311938</v>
       </c>
       <c r="Q12" t="n">
-        <v>1045.107440523176</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R12" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S12" t="n">
-        <v>970.4751098002878</v>
+        <v>970.4751098002887</v>
       </c>
       <c r="T12" t="n">
-        <v>797.7408584103374</v>
+        <v>797.7408584103383</v>
       </c>
       <c r="U12" t="n">
-        <v>587.7470767931871</v>
+        <v>797.7408584103383</v>
       </c>
       <c r="V12" t="n">
-        <v>365.2070751642542</v>
+        <v>692.7883127702644</v>
       </c>
       <c r="W12" t="n">
-        <v>135.0898292975411</v>
+        <v>692.7883127702644</v>
       </c>
       <c r="X12" t="n">
-        <v>135.0898292975411</v>
+        <v>503.481235120276</v>
       </c>
       <c r="Y12" t="n">
-        <v>135.0898292975411</v>
+        <v>324.1670181957833</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.13273733775247</v>
+        <v>501.9713661967742</v>
       </c>
       <c r="C13" t="n">
-        <v>42.13273733775247</v>
+        <v>501.9713661967742</v>
       </c>
       <c r="D13" t="n">
-        <v>42.13273733775247</v>
+        <v>501.9713661967742</v>
       </c>
       <c r="E13" t="n">
-        <v>21.71645331491409</v>
+        <v>346.4125540559767</v>
       </c>
       <c r="F13" t="n">
-        <v>21.71645331491409</v>
+        <v>189.0866192689496</v>
       </c>
       <c r="G13" t="n">
-        <v>21.71645331491409</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="H13" t="n">
-        <v>21.71645331491409</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="I13" t="n">
-        <v>21.71645331491409</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="J13" t="n">
-        <v>53.19002006777016</v>
+        <v>21.71645331491411</v>
       </c>
       <c r="K13" t="n">
-        <v>70.81813212755367</v>
+        <v>204.199638117379</v>
       </c>
       <c r="L13" t="n">
-        <v>339.5592418996155</v>
+        <v>472.9407478894411</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3003516716774</v>
+        <v>691.6211789495753</v>
       </c>
       <c r="N13" t="n">
-        <v>877.0414614437393</v>
+        <v>960.3622887216374</v>
       </c>
       <c r="O13" t="n">
-        <v>1069.675761258582</v>
+        <v>993.7128722788428</v>
       </c>
       <c r="P13" t="n">
-        <v>1085.822665745704</v>
+        <v>1009.859776765965</v>
       </c>
       <c r="Q13" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R13" t="n">
-        <v>1001.66449259176</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="S13" t="n">
-        <v>814.2521650786446</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="T13" t="n">
-        <v>582.3097253820051</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="U13" t="n">
-        <v>308.1120825169282</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="V13" t="n">
-        <v>42.13273733775247</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="W13" t="n">
-        <v>42.13273733775247</v>
+        <v>736.0516884137911</v>
       </c>
       <c r="X13" t="n">
-        <v>42.13273733775247</v>
+        <v>501.9713661967742</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.13273733775247</v>
+        <v>501.9713661967742</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1085.822665745704</v>
+        <v>811.6250228806279</v>
       </c>
       <c r="C14" t="n">
-        <v>1085.822665745704</v>
+        <v>811.6250228806279</v>
       </c>
       <c r="D14" t="n">
-        <v>1085.822665745704</v>
+        <v>811.6250228806279</v>
       </c>
       <c r="E14" t="n">
-        <v>906.6797014289737</v>
+        <v>537.4273800155509</v>
       </c>
       <c r="F14" t="n">
-        <v>632.4820585638968</v>
+        <v>295.9140961799911</v>
       </c>
       <c r="G14" t="n">
-        <v>358.2844156988199</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="H14" t="n">
-        <v>84.08677283374313</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="I14" t="n">
-        <v>21.71645331491408</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="J14" t="n">
-        <v>69.12703774963856</v>
+        <v>69.12703774963848</v>
       </c>
       <c r="K14" t="n">
         <v>173.163250751011</v>
       </c>
       <c r="L14" t="n">
-        <v>326.2155176981177</v>
+        <v>326.2155176981178</v>
       </c>
       <c r="M14" t="n">
         <v>517.1007890301216</v>
       </c>
       <c r="N14" t="n">
-        <v>714.0737590629255</v>
+        <v>714.0737590629262</v>
       </c>
       <c r="O14" t="n">
-        <v>891.4018293582276</v>
+        <v>891.401829358228</v>
       </c>
       <c r="P14" t="n">
-        <v>1020.321584167044</v>
+        <v>1020.321584167045</v>
       </c>
       <c r="Q14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="T14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="U14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="V14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="W14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="X14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="Y14" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>292.0620061591084</v>
+        <v>219.1257822187065</v>
       </c>
       <c r="C15" t="n">
-        <v>141.4077757192006</v>
+        <v>68.4715517787987</v>
       </c>
       <c r="D15" t="n">
-        <v>141.4077757192006</v>
+        <v>68.4715517787987</v>
       </c>
       <c r="E15" t="n">
-        <v>21.71645331491408</v>
+        <v>68.4715517787987</v>
       </c>
       <c r="F15" t="n">
-        <v>21.71645331491408</v>
+        <v>68.4715517787987</v>
       </c>
       <c r="G15" t="n">
-        <v>21.71645331491408</v>
+        <v>68.4715517787987</v>
       </c>
       <c r="H15" t="n">
-        <v>21.71645331491408</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="I15" t="n">
-        <v>21.71645331491408</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="J15" t="n">
-        <v>170.1413538177043</v>
+        <v>170.141353817705</v>
       </c>
       <c r="K15" t="n">
-        <v>248.2984835399992</v>
+        <v>248.2984835399999</v>
       </c>
       <c r="L15" t="n">
-        <v>383.5000413913522</v>
+        <v>383.5000413913529</v>
       </c>
       <c r="M15" t="n">
-        <v>553.8558466703525</v>
+        <v>553.8558466703532</v>
       </c>
       <c r="N15" t="n">
-        <v>738.0860824008046</v>
+        <v>738.0860824008053</v>
       </c>
       <c r="O15" t="n">
-        <v>892.1778889169871</v>
+        <v>892.1778889169877</v>
       </c>
       <c r="P15" t="n">
-        <v>1003.283655561725</v>
+        <v>1003.283655561726</v>
       </c>
       <c r="Q15" t="n">
-        <v>1045.107440523176</v>
+        <v>1045.107440523177</v>
       </c>
       <c r="R15" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S15" t="n">
-        <v>1085.822665745704</v>
+        <v>970.4751098002882</v>
       </c>
       <c r="T15" t="n">
-        <v>1085.822665745704</v>
+        <v>797.7408584103379</v>
       </c>
       <c r="U15" t="n">
-        <v>1085.822665745704</v>
+        <v>587.7470767931876</v>
       </c>
       <c r="V15" t="n">
-        <v>863.2826641167712</v>
+        <v>587.7470767931876</v>
       </c>
       <c r="W15" t="n">
-        <v>633.1654182500581</v>
+        <v>587.7470767931876</v>
       </c>
       <c r="X15" t="n">
-        <v>443.8583406000698</v>
+        <v>398.4399991431993</v>
       </c>
       <c r="Y15" t="n">
-        <v>443.8583406000698</v>
+        <v>219.1257822187065</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>934.3231014358771</v>
+        <v>347.4803833897224</v>
       </c>
       <c r="C16" t="n">
-        <v>764.1179835018663</v>
+        <v>177.2752654557116</v>
       </c>
       <c r="D16" t="n">
-        <v>608.4848704043811</v>
+        <v>177.2752654557116</v>
       </c>
       <c r="E16" t="n">
-        <v>452.9260582635836</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="F16" t="n">
-        <v>295.6001234765565</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="G16" t="n">
-        <v>128.229957522521</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="H16" t="n">
-        <v>128.229957522521</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="I16" t="n">
-        <v>21.71645331491408</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="J16" t="n">
-        <v>53.19002006777015</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="K16" t="n">
-        <v>70.81813212755365</v>
+        <v>204.199638117379</v>
       </c>
       <c r="L16" t="n">
-        <v>339.5592418996155</v>
+        <v>263.4524319423969</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3003516716773</v>
+        <v>532.1935417144589</v>
       </c>
       <c r="N16" t="n">
-        <v>877.0414614437391</v>
+        <v>800.9346514865208</v>
       </c>
       <c r="O16" t="n">
-        <v>993.7128722788418</v>
+        <v>1069.675761258583</v>
       </c>
       <c r="P16" t="n">
-        <v>1009.859776765964</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="Q16" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R16" t="n">
-        <v>1085.822665745704</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="S16" t="n">
-        <v>1085.822665745704</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.822665745704</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="U16" t="n">
-        <v>1085.822665745704</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="V16" t="n">
-        <v>1085.822665745704</v>
+        <v>735.6851474125851</v>
       </c>
       <c r="W16" t="n">
-        <v>934.3231014358771</v>
+        <v>735.6851474125851</v>
       </c>
       <c r="X16" t="n">
-        <v>934.3231014358771</v>
+        <v>735.6851474125851</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.3231014358771</v>
+        <v>532.6884020810237</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.71645331491408</v>
+        <v>295.914096179991</v>
       </c>
       <c r="C17" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="D17" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="E17" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="F17" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="G17" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H17" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I17" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J17" t="n">
         <v>69.12703774963856</v>
@@ -5527,13 +5527,13 @@
         <v>517.1007890301216</v>
       </c>
       <c r="N17" t="n">
-        <v>714.0737590629255</v>
+        <v>714.0737590629258</v>
       </c>
       <c r="O17" t="n">
-        <v>891.4018293582276</v>
+        <v>891.4018293582278</v>
       </c>
       <c r="P17" t="n">
-        <v>1020.321584167044</v>
+        <v>1020.321584167045</v>
       </c>
       <c r="Q17" t="n">
         <v>1085.822665745704</v>
@@ -5545,22 +5545,22 @@
         <v>1085.822665745704</v>
       </c>
       <c r="T17" t="n">
-        <v>870.9478244248683</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="U17" t="n">
-        <v>615.3527329838712</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="V17" t="n">
-        <v>341.1550901187944</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="W17" t="n">
-        <v>66.95744725371753</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="X17" t="n">
-        <v>21.71645331491408</v>
+        <v>295.914096179991</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.71645331491408</v>
+        <v>295.914096179991</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>492.8033506859944</v>
+        <v>345.0836109146913</v>
       </c>
       <c r="C18" t="n">
-        <v>492.8033506859944</v>
+        <v>345.0836109146913</v>
       </c>
       <c r="D18" t="n">
-        <v>492.8033506859944</v>
+        <v>265.1537794559569</v>
       </c>
       <c r="E18" t="n">
-        <v>356.3568597968821</v>
+        <v>265.1537794559569</v>
       </c>
       <c r="F18" t="n">
-        <v>231.9250536800139</v>
+        <v>140.7219733390886</v>
       </c>
       <c r="G18" t="n">
-        <v>112.9195336558394</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H18" t="n">
-        <v>34.8044154341691</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I18" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J18" t="n">
-        <v>85.63047977609452</v>
+        <v>170.1413538177045</v>
       </c>
       <c r="K18" t="n">
-        <v>163.7876094983894</v>
+        <v>248.2984835399994</v>
       </c>
       <c r="L18" t="n">
-        <v>298.9891673497424</v>
+        <v>383.5000413913525</v>
       </c>
       <c r="M18" t="n">
-        <v>469.3449726287428</v>
+        <v>553.8558466703528</v>
       </c>
       <c r="N18" t="n">
-        <v>738.0860824008046</v>
+        <v>738.0860824008048</v>
       </c>
       <c r="O18" t="n">
-        <v>892.1778889169871</v>
+        <v>892.1778889169873</v>
       </c>
       <c r="P18" t="n">
-        <v>1003.283655561725</v>
+        <v>1003.283655561726</v>
       </c>
       <c r="Q18" t="n">
         <v>1045.107440523176</v>
@@ -5621,25 +5621,25 @@
         <v>1085.822665745704</v>
       </c>
       <c r="S18" t="n">
-        <v>970.4751098002876</v>
+        <v>970.4751098002878</v>
       </c>
       <c r="T18" t="n">
-        <v>797.7408584103372</v>
+        <v>797.7408584103374</v>
       </c>
       <c r="U18" t="n">
-        <v>587.7470767931869</v>
+        <v>797.7408584103374</v>
       </c>
       <c r="V18" t="n">
-        <v>492.8033506859944</v>
+        <v>575.2008567814045</v>
       </c>
       <c r="W18" t="n">
-        <v>492.8033506859944</v>
+        <v>345.0836109146913</v>
       </c>
       <c r="X18" t="n">
-        <v>492.8033506859944</v>
+        <v>345.0836109146913</v>
       </c>
       <c r="Y18" t="n">
-        <v>492.8033506859944</v>
+        <v>345.0836109146913</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.71645331491408</v>
+        <v>39.50559513973542</v>
       </c>
       <c r="C19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="D19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="E19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="F19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="G19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J19" t="n">
-        <v>21.71645331491408</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="K19" t="n">
-        <v>39.34456537469759</v>
+        <v>204.199638117379</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0856751467594</v>
+        <v>472.9407478894408</v>
       </c>
       <c r="M19" t="n">
-        <v>456.2306527347182</v>
+        <v>741.6818576615026</v>
       </c>
       <c r="N19" t="n">
-        <v>724.97176250678</v>
+        <v>960.3622887216366</v>
       </c>
       <c r="O19" t="n">
-        <v>993.7128722788418</v>
+        <v>993.712872278842</v>
       </c>
       <c r="P19" t="n">
         <v>1009.859776765964</v>
@@ -5700,25 +5700,25 @@
         <v>1085.822665745704</v>
       </c>
       <c r="S19" t="n">
-        <v>898.4103382325882</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="T19" t="n">
-        <v>666.4678985359487</v>
+        <v>853.880226049065</v>
       </c>
       <c r="U19" t="n">
-        <v>392.2702556708719</v>
+        <v>579.6825831839881</v>
       </c>
       <c r="V19" t="n">
-        <v>392.2702556708719</v>
+        <v>313.7032380048123</v>
       </c>
       <c r="W19" t="n">
-        <v>392.2702556708719</v>
+        <v>39.50559513973542</v>
       </c>
       <c r="X19" t="n">
-        <v>158.189933453855</v>
+        <v>39.50559513973542</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.189933453855</v>
+        <v>39.50559513973542</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>570.1117390450679</v>
       </c>
       <c r="D20" t="n">
-        <v>295.914096179991</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="E20" t="n">
-        <v>295.914096179991</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="F20" t="n">
         <v>295.914096179991</v>
       </c>
       <c r="G20" t="n">
-        <v>295.914096179991</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H20" t="n">
         <v>21.71645331491409</v>
@@ -5779,16 +5779,16 @@
         <v>1085.822665745704</v>
       </c>
       <c r="S20" t="n">
-        <v>1085.822665745704</v>
+        <v>964.2113451850402</v>
       </c>
       <c r="T20" t="n">
-        <v>1085.822665745704</v>
+        <v>964.2113451850402</v>
       </c>
       <c r="U20" t="n">
-        <v>1085.822665745704</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="V20" t="n">
-        <v>1085.822665745704</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="W20" t="n">
         <v>844.3093819101448</v>
@@ -5797,7 +5797,7 @@
         <v>844.3093819101448</v>
       </c>
       <c r="Y20" t="n">
-        <v>844.3093819101448</v>
+        <v>570.1117390450679</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>487.0841253045102</v>
+        <v>237.3513397727075</v>
       </c>
       <c r="C21" t="n">
-        <v>336.4298948646024</v>
+        <v>237.3513397727075</v>
       </c>
       <c r="D21" t="n">
-        <v>336.4298948646024</v>
+        <v>237.3513397727075</v>
       </c>
       <c r="E21" t="n">
-        <v>336.4298948646024</v>
+        <v>237.3513397727075</v>
       </c>
       <c r="F21" t="n">
-        <v>211.9980887477342</v>
+        <v>112.9195336558394</v>
       </c>
       <c r="G21" t="n">
         <v>112.9195336558394</v>
@@ -5831,52 +5831,52 @@
         <v>21.71645331491409</v>
       </c>
       <c r="J21" t="n">
-        <v>170.1413538177045</v>
+        <v>37.72227208717188</v>
       </c>
       <c r="K21" t="n">
-        <v>248.2984835399994</v>
+        <v>115.8794018094668</v>
       </c>
       <c r="L21" t="n">
-        <v>383.5000413913525</v>
+        <v>251.0809596608198</v>
       </c>
       <c r="M21" t="n">
-        <v>553.8558466703528</v>
+        <v>421.4367649398201</v>
       </c>
       <c r="N21" t="n">
-        <v>738.0860824008048</v>
+        <v>605.6670006702722</v>
       </c>
       <c r="O21" t="n">
-        <v>892.1778889169873</v>
+        <v>759.7588071864546</v>
       </c>
       <c r="P21" t="n">
-        <v>1003.283655561726</v>
+        <v>870.8645738311932</v>
       </c>
       <c r="Q21" t="n">
-        <v>1045.107440523176</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R21" t="n">
         <v>1085.822665745704</v>
       </c>
       <c r="S21" t="n">
-        <v>1085.822665745704</v>
+        <v>970.4751098002878</v>
       </c>
       <c r="T21" t="n">
-        <v>1085.822665745704</v>
+        <v>970.4751098002878</v>
       </c>
       <c r="U21" t="n">
-        <v>1085.822665745704</v>
+        <v>970.4751098002878</v>
       </c>
       <c r="V21" t="n">
-        <v>1085.822665745704</v>
+        <v>747.9351081713548</v>
       </c>
       <c r="W21" t="n">
-        <v>855.7054198789913</v>
+        <v>517.8178623046417</v>
       </c>
       <c r="X21" t="n">
-        <v>666.398342229003</v>
+        <v>328.5107846546534</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.0841253045102</v>
+        <v>237.3513397727075</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.24001614507358</v>
+        <v>348.2294031649882</v>
       </c>
       <c r="C22" t="n">
-        <v>86.24001614507358</v>
+        <v>178.0242852309774</v>
       </c>
       <c r="D22" t="n">
-        <v>86.24001614507358</v>
+        <v>178.0242852309774</v>
       </c>
       <c r="E22" t="n">
-        <v>86.24001614507358</v>
+        <v>178.0242852309774</v>
       </c>
       <c r="F22" t="n">
-        <v>86.24001614507358</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="G22" t="n">
-        <v>86.24001614507358</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H22" t="n">
-        <v>86.24001614507358</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I22" t="n">
         <v>21.71645331491409</v>
@@ -5913,49 +5913,49 @@
         <v>21.71645331491409</v>
       </c>
       <c r="K22" t="n">
-        <v>204.199638117379</v>
+        <v>39.34456537469759</v>
       </c>
       <c r="L22" t="n">
-        <v>246.1963209137763</v>
+        <v>81.34124817109495</v>
       </c>
       <c r="M22" t="n">
-        <v>514.9374306858382</v>
+        <v>350.0823579431568</v>
       </c>
       <c r="N22" t="n">
-        <v>565.3390913339036</v>
+        <v>618.8234677152186</v>
       </c>
       <c r="O22" t="n">
-        <v>785.208735896637</v>
+        <v>887.5645774872805</v>
       </c>
       <c r="P22" t="n">
-        <v>1009.859776765964</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="Q22" t="n">
         <v>1085.822665745704</v>
       </c>
       <c r="R22" t="n">
-        <v>1085.822665745704</v>
+        <v>1001.66449259176</v>
       </c>
       <c r="S22" t="n">
-        <v>1085.822665745704</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.822665745704</v>
+        <v>582.3097253820051</v>
       </c>
       <c r="U22" t="n">
-        <v>811.6250228806275</v>
+        <v>582.3097253820051</v>
       </c>
       <c r="V22" t="n">
-        <v>545.6456777014517</v>
+        <v>582.3097253820051</v>
       </c>
       <c r="W22" t="n">
-        <v>271.4480348363749</v>
+        <v>582.3097253820051</v>
       </c>
       <c r="X22" t="n">
-        <v>271.4480348363749</v>
+        <v>348.2294031649882</v>
       </c>
       <c r="Y22" t="n">
-        <v>271.4480348363749</v>
+        <v>348.2294031649882</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.7164533149141</v>
+        <v>596.7501815597919</v>
       </c>
       <c r="C23" t="n">
-        <v>21.7164533149141</v>
+        <v>596.7501815597919</v>
       </c>
       <c r="D23" t="n">
-        <v>21.7164533149141</v>
+        <v>596.7501815597919</v>
       </c>
       <c r="E23" t="n">
-        <v>21.7164533149141</v>
+        <v>322.5525386947149</v>
       </c>
       <c r="F23" t="n">
-        <v>21.7164533149141</v>
+        <v>48.35489582963794</v>
       </c>
       <c r="G23" t="n">
-        <v>21.7164533149141</v>
+        <v>48.35489582963794</v>
       </c>
       <c r="H23" t="n">
         <v>21.7164533149141</v>
@@ -5992,10 +5992,10 @@
         <v>69.1270377496387</v>
       </c>
       <c r="K23" t="n">
-        <v>173.1632507510114</v>
+        <v>173.1632507510113</v>
       </c>
       <c r="L23" t="n">
-        <v>326.2155176981182</v>
+        <v>326.215517698118</v>
       </c>
       <c r="M23" t="n">
         <v>517.1007890301221</v>
@@ -6019,22 +6019,22 @@
         <v>1085.822665745705</v>
       </c>
       <c r="T23" t="n">
-        <v>1085.822665745705</v>
+        <v>870.9478244248689</v>
       </c>
       <c r="U23" t="n">
-        <v>830.2275743047078</v>
+        <v>870.9478244248689</v>
       </c>
       <c r="V23" t="n">
-        <v>556.0299314396308</v>
+        <v>870.9478244248689</v>
       </c>
       <c r="W23" t="n">
-        <v>295.9140961799911</v>
+        <v>870.9478244248689</v>
       </c>
       <c r="X23" t="n">
-        <v>295.9140961799911</v>
+        <v>870.9478244248689</v>
       </c>
       <c r="Y23" t="n">
-        <v>295.9140961799911</v>
+        <v>596.7501815597919</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>639.3645584348342</v>
+        <v>760.4585863851668</v>
       </c>
       <c r="C24" t="n">
-        <v>488.7103279949264</v>
+        <v>609.804355945259</v>
       </c>
       <c r="D24" t="n">
         <v>479.7153885667394</v>
@@ -6089,7 +6089,7 @@
         <v>870.8645738311932</v>
       </c>
       <c r="Q24" t="n">
-        <v>1045.107440523177</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R24" t="n">
         <v>1085.822665745705</v>
@@ -6101,19 +6101,19 @@
         <v>970.4751098002882</v>
       </c>
       <c r="U24" t="n">
-        <v>970.4751098002882</v>
+        <v>939.7728033096596</v>
       </c>
       <c r="V24" t="n">
-        <v>970.4751098002882</v>
+        <v>939.7728033096596</v>
       </c>
       <c r="W24" t="n">
-        <v>970.4751098002882</v>
+        <v>939.7728033096596</v>
       </c>
       <c r="X24" t="n">
-        <v>970.4751098002882</v>
+        <v>939.7728033096596</v>
       </c>
       <c r="Y24" t="n">
-        <v>791.1608928757955</v>
+        <v>760.4585863851668</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>814.252165078645</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="C25" t="n">
-        <v>814.252165078645</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="D25" t="n">
-        <v>658.6190519811598</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="E25" t="n">
-        <v>503.0602398403623</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="F25" t="n">
-        <v>345.7343050533353</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="G25" t="n">
-        <v>275.8499411819768</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="H25" t="n">
-        <v>128.229957522521</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="I25" t="n">
         <v>21.7164533149141</v>
       </c>
       <c r="J25" t="n">
-        <v>53.19002006777016</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="K25" t="n">
-        <v>145.4928601662593</v>
+        <v>150.9273581058606</v>
       </c>
       <c r="L25" t="n">
-        <v>187.4895429626566</v>
+        <v>419.6684678779226</v>
       </c>
       <c r="M25" t="n">
-        <v>456.2306527347186</v>
+        <v>466.06596547651</v>
       </c>
       <c r="N25" t="n">
-        <v>724.9717625067806</v>
+        <v>516.4676261245754</v>
       </c>
       <c r="O25" t="n">
-        <v>993.7128722788425</v>
+        <v>785.2087358966374</v>
       </c>
       <c r="P25" t="n">
         <v>1009.859776765965</v>
@@ -6171,28 +6171,28 @@
         <v>1085.822665745705</v>
       </c>
       <c r="R25" t="n">
-        <v>1001.664492591761</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S25" t="n">
-        <v>814.252165078645</v>
+        <v>898.4103382325889</v>
       </c>
       <c r="T25" t="n">
-        <v>814.252165078645</v>
+        <v>898.4103382325889</v>
       </c>
       <c r="U25" t="n">
-        <v>814.252165078645</v>
+        <v>624.2126953675119</v>
       </c>
       <c r="V25" t="n">
-        <v>814.252165078645</v>
+        <v>358.2333501883361</v>
       </c>
       <c r="W25" t="n">
-        <v>814.252165078645</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="X25" t="n">
-        <v>814.252165078645</v>
+        <v>84.03570732325909</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.252165078645</v>
+        <v>84.03570732325909</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>615.3527329838719</v>
+      </c>
+      <c r="C26" t="n">
+        <v>615.3527329838719</v>
+      </c>
+      <c r="D26" t="n">
+        <v>615.3527329838719</v>
+      </c>
+      <c r="E26" t="n">
+        <v>615.3527329838719</v>
+      </c>
+      <c r="F26" t="n">
+        <v>341.1550901187949</v>
+      </c>
+      <c r="G26" t="n">
         <v>295.9140961799911</v>
-      </c>
-      <c r="C26" t="n">
-        <v>21.7164533149141</v>
-      </c>
-      <c r="D26" t="n">
-        <v>21.7164533149141</v>
-      </c>
-      <c r="E26" t="n">
-        <v>21.7164533149141</v>
-      </c>
-      <c r="F26" t="n">
-        <v>21.7164533149141</v>
-      </c>
-      <c r="G26" t="n">
-        <v>21.7164533149141</v>
       </c>
       <c r="H26" t="n">
         <v>21.7164533149141</v>
@@ -6226,13 +6226,13 @@
         <v>21.7164533149141</v>
       </c>
       <c r="J26" t="n">
-        <v>69.1270377496387</v>
+        <v>69.12703774963856</v>
       </c>
       <c r="K26" t="n">
-        <v>173.1632507510112</v>
+        <v>173.163250751011</v>
       </c>
       <c r="L26" t="n">
-        <v>326.215517698118</v>
+        <v>326.2155176981179</v>
       </c>
       <c r="M26" t="n">
         <v>517.1007890301219</v>
@@ -6256,22 +6256,22 @@
         <v>1085.822665745705</v>
       </c>
       <c r="T26" t="n">
-        <v>1085.822665745705</v>
+        <v>870.9478244248689</v>
       </c>
       <c r="U26" t="n">
-        <v>844.3093819101451</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="V26" t="n">
-        <v>844.3093819101451</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="W26" t="n">
-        <v>570.1117390450681</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="X26" t="n">
-        <v>295.9140961799911</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="Y26" t="n">
-        <v>295.9140961799911</v>
+        <v>615.3527329838719</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7144502136925</v>
+        <v>379.4549919234713</v>
       </c>
       <c r="C27" t="n">
-        <v>176.7144502136925</v>
+        <v>379.4549919234713</v>
       </c>
       <c r="D27" t="n">
-        <v>176.7144502136925</v>
+        <v>249.3660245449516</v>
       </c>
       <c r="E27" t="n">
-        <v>40.2679593245802</v>
+        <v>112.9195336558394</v>
       </c>
       <c r="F27" t="n">
-        <v>21.7164533149141</v>
+        <v>112.9195336558394</v>
       </c>
       <c r="G27" t="n">
-        <v>21.7164533149141</v>
+        <v>112.9195336558394</v>
       </c>
       <c r="H27" t="n">
-        <v>21.7164533149141</v>
+        <v>34.80441543416912</v>
       </c>
       <c r="I27" t="n">
         <v>21.7164533149141</v>
       </c>
       <c r="J27" t="n">
-        <v>37.72227208717189</v>
+        <v>210.8565790402332</v>
       </c>
       <c r="K27" t="n">
-        <v>115.8794018094668</v>
+        <v>289.0137087625282</v>
       </c>
       <c r="L27" t="n">
-        <v>251.0809596608198</v>
+        <v>424.2152666138812</v>
       </c>
       <c r="M27" t="n">
-        <v>421.4367649398201</v>
+        <v>594.5710718928815</v>
       </c>
       <c r="N27" t="n">
-        <v>605.6670006702722</v>
+        <v>778.8013076233335</v>
       </c>
       <c r="O27" t="n">
-        <v>759.7588071864546</v>
+        <v>932.893114139516</v>
       </c>
       <c r="P27" t="n">
-        <v>870.8645738311932</v>
+        <v>1043.998880784254</v>
       </c>
       <c r="Q27" t="n">
         <v>1085.822665745705</v>
@@ -6332,25 +6332,25 @@
         <v>1085.822665745705</v>
       </c>
       <c r="S27" t="n">
-        <v>970.4751098002882</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="T27" t="n">
-        <v>970.4751098002882</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="U27" t="n">
-        <v>970.4751098002882</v>
+        <v>950.6756498811342</v>
       </c>
       <c r="V27" t="n">
-        <v>747.9351081713553</v>
+        <v>950.6756498811342</v>
       </c>
       <c r="W27" t="n">
-        <v>517.8178623046422</v>
+        <v>720.5584040144211</v>
       </c>
       <c r="X27" t="n">
-        <v>328.5107846546538</v>
+        <v>531.2513263644327</v>
       </c>
       <c r="Y27" t="n">
-        <v>328.5107846546538</v>
+        <v>531.2513263644327</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>347.5546843464101</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="C28" t="n">
-        <v>177.3495664123994</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="D28" t="n">
         <v>21.7164533149141</v>
@@ -6390,19 +6390,19 @@
         <v>204.199638117379</v>
       </c>
       <c r="L28" t="n">
-        <v>472.940747889441</v>
+        <v>263.4524319423969</v>
       </c>
       <c r="M28" t="n">
-        <v>519.3382454880284</v>
+        <v>532.1935417144589</v>
       </c>
       <c r="N28" t="n">
-        <v>569.7399061360939</v>
+        <v>800.9346514865208</v>
       </c>
       <c r="O28" t="n">
-        <v>785.2087358966374</v>
+        <v>1069.675761258583</v>
       </c>
       <c r="P28" t="n">
-        <v>1009.859776765965</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="Q28" t="n">
         <v>1085.822665745705</v>
@@ -6411,25 +6411,25 @@
         <v>1085.822665745705</v>
       </c>
       <c r="S28" t="n">
-        <v>1085.822665745705</v>
+        <v>1068.033523920883</v>
       </c>
       <c r="T28" t="n">
-        <v>1085.822665745705</v>
+        <v>836.0910842242439</v>
       </c>
       <c r="U28" t="n">
-        <v>1085.822665745705</v>
+        <v>561.8934413591669</v>
       </c>
       <c r="V28" t="n">
-        <v>1085.822665745705</v>
+        <v>295.9140961799911</v>
       </c>
       <c r="W28" t="n">
-        <v>989.955086438085</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="X28" t="n">
-        <v>755.8747642210681</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="Y28" t="n">
-        <v>532.7627030377114</v>
+        <v>21.7164533149141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>844.3093819101448</v>
+      </c>
+      <c r="C29" t="n">
+        <v>844.3093819101448</v>
+      </c>
+      <c r="D29" t="n">
         <v>570.1117390450679</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
         <v>295.914096179991</v>
-      </c>
-      <c r="D29" t="n">
-        <v>295.914096179991</v>
-      </c>
-      <c r="E29" t="n">
-        <v>21.71645331491409</v>
       </c>
       <c r="F29" t="n">
         <v>21.71645331491409</v>
@@ -6475,40 +6475,40 @@
         <v>517.1007890301216</v>
       </c>
       <c r="N29" t="n">
-        <v>714.073759062926</v>
+        <v>714.0737590629258</v>
       </c>
       <c r="O29" t="n">
-        <v>891.401829358228</v>
+        <v>891.4018293582278</v>
       </c>
       <c r="P29" t="n">
         <v>1020.321584167045</v>
       </c>
       <c r="Q29" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R29" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S29" t="n">
-        <v>1059.184223230981</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="T29" t="n">
+        <v>1085.822665745704</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1085.822665745704</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1085.822665745704</v>
+      </c>
+      <c r="W29" t="n">
         <v>844.3093819101448</v>
       </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>844.3093819101448</v>
       </c>
-      <c r="V29" t="n">
-        <v>570.1117390450679</v>
-      </c>
-      <c r="W29" t="n">
-        <v>570.1117390450679</v>
-      </c>
-      <c r="X29" t="n">
-        <v>570.1117390450679</v>
-      </c>
       <c r="Y29" t="n">
-        <v>570.1117390450679</v>
+        <v>844.3093819101448</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.64105080199656</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="C30" t="n">
-        <v>98.64105080199656</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="D30" t="n">
-        <v>98.64105080199656</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="E30" t="n">
         <v>21.71645331491409</v>
@@ -6542,7 +6542,7 @@
         <v>21.71645331491409</v>
       </c>
       <c r="J30" t="n">
-        <v>37.72227208717189</v>
+        <v>37.72227208717188</v>
       </c>
       <c r="K30" t="n">
         <v>115.8794018094668</v>
@@ -6551,43 +6551,43 @@
         <v>251.0809596608198</v>
       </c>
       <c r="M30" t="n">
-        <v>421.4367649398201</v>
+        <v>519.8220694328817</v>
       </c>
       <c r="N30" t="n">
-        <v>605.6670006702722</v>
+        <v>778.8013076233331</v>
       </c>
       <c r="O30" t="n">
-        <v>759.7588071864546</v>
+        <v>932.8931141395155</v>
       </c>
       <c r="P30" t="n">
-        <v>870.8645738311932</v>
+        <v>1043.998880784254</v>
       </c>
       <c r="Q30" t="n">
-        <v>1045.107440523176</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R30" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S30" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="T30" t="n">
-        <v>913.0884143557543</v>
+        <v>1052.988777002191</v>
       </c>
       <c r="U30" t="n">
-        <v>703.094632738604</v>
+        <v>842.9949953850413</v>
       </c>
       <c r="V30" t="n">
-        <v>480.554631109671</v>
+        <v>620.4549937561084</v>
       </c>
       <c r="W30" t="n">
-        <v>250.4373852429579</v>
+        <v>390.3377478893952</v>
       </c>
       <c r="X30" t="n">
-        <v>250.4373852429579</v>
+        <v>201.0306702394068</v>
       </c>
       <c r="Y30" t="n">
-        <v>250.4373852429579</v>
+        <v>21.71645331491409</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.0253314970347</v>
+        <v>628.6302823453308</v>
       </c>
       <c r="C31" t="n">
-        <v>21.71645331491409</v>
+        <v>500.2785445072323</v>
       </c>
       <c r="D31" t="n">
-        <v>21.71645331491409</v>
+        <v>344.6454314097471</v>
       </c>
       <c r="E31" t="n">
-        <v>21.71645331491409</v>
+        <v>189.0866192689496</v>
       </c>
       <c r="F31" t="n">
-        <v>21.71645331491409</v>
+        <v>189.0866192689496</v>
       </c>
       <c r="G31" t="n">
         <v>21.71645331491409</v>
@@ -6624,49 +6624,49 @@
         <v>21.71645331491409</v>
       </c>
       <c r="K31" t="n">
-        <v>204.199638117379</v>
+        <v>39.34456537469759</v>
       </c>
       <c r="L31" t="n">
-        <v>246.1963209137763</v>
+        <v>263.4524319423966</v>
       </c>
       <c r="M31" t="n">
-        <v>514.9374306858383</v>
+        <v>532.1935417144584</v>
       </c>
       <c r="N31" t="n">
-        <v>724.9717625067804</v>
+        <v>800.9346514865204</v>
       </c>
       <c r="O31" t="n">
-        <v>993.7128722788423</v>
+        <v>1069.675761258582</v>
       </c>
       <c r="P31" t="n">
-        <v>1009.859776765964</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="Q31" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R31" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S31" t="n">
-        <v>898.4103382325886</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="T31" t="n">
-        <v>898.4103382325886</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="U31" t="n">
-        <v>624.2126953675117</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="V31" t="n">
-        <v>358.233350188336</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="W31" t="n">
-        <v>358.233350188336</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="X31" t="n">
-        <v>358.233350188336</v>
+        <v>851.7423435286875</v>
       </c>
       <c r="Y31" t="n">
-        <v>358.233350188336</v>
+        <v>628.6302823453308</v>
       </c>
     </row>
     <row r="32">
@@ -6685,13 +6685,13 @@
         <v>570.1117390450679</v>
       </c>
       <c r="E32" t="n">
+        <v>570.1117390450679</v>
+      </c>
+      <c r="F32" t="n">
         <v>295.914096179991</v>
       </c>
-      <c r="F32" t="n">
-        <v>21.71645331491409</v>
-      </c>
       <c r="G32" t="n">
-        <v>21.71645331491409</v>
+        <v>295.914096179991</v>
       </c>
       <c r="H32" t="n">
         <v>21.71645331491409</v>
@@ -6700,16 +6700,16 @@
         <v>21.71645331491409</v>
       </c>
       <c r="J32" t="n">
-        <v>69.12703774963829</v>
+        <v>69.12703774963848</v>
       </c>
       <c r="K32" t="n">
-        <v>173.1632507510108</v>
+        <v>173.163250751011</v>
       </c>
       <c r="L32" t="n">
-        <v>326.2155176981176</v>
+        <v>326.2155176981178</v>
       </c>
       <c r="M32" t="n">
-        <v>517.1007890301215</v>
+        <v>517.1007890301216</v>
       </c>
       <c r="N32" t="n">
         <v>714.0737590629258</v>
@@ -6718,7 +6718,7 @@
         <v>891.4018293582278</v>
       </c>
       <c r="P32" t="n">
-        <v>1020.321584167044</v>
+        <v>1020.321584167045</v>
       </c>
       <c r="Q32" t="n">
         <v>1085.822665745704</v>
@@ -6730,22 +6730,22 @@
         <v>1085.822665745704</v>
       </c>
       <c r="T32" t="n">
-        <v>1085.822665745704</v>
+        <v>870.9478244248685</v>
       </c>
       <c r="U32" t="n">
-        <v>1085.822665745704</v>
+        <v>870.9478244248685</v>
       </c>
       <c r="V32" t="n">
-        <v>1085.822665745704</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="W32" t="n">
-        <v>1085.822665745704</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="X32" t="n">
-        <v>1085.822665745704</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="Y32" t="n">
-        <v>844.3093819101448</v>
+        <v>570.1117390450679</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.71645331491409</v>
+        <v>773.5465485044218</v>
       </c>
       <c r="C33" t="n">
-        <v>21.71645331491409</v>
+        <v>622.892318064514</v>
       </c>
       <c r="D33" t="n">
-        <v>21.71645331491409</v>
+        <v>492.8033506859944</v>
       </c>
       <c r="E33" t="n">
-        <v>21.71645331491409</v>
+        <v>356.3568597968821</v>
       </c>
       <c r="F33" t="n">
-        <v>21.71645331491409</v>
+        <v>231.9250536800139</v>
       </c>
       <c r="G33" t="n">
-        <v>21.71645331491409</v>
+        <v>112.9195336558394</v>
       </c>
       <c r="H33" t="n">
-        <v>21.71645331491409</v>
+        <v>34.80441543416911</v>
       </c>
       <c r="I33" t="n">
         <v>21.71645331491409</v>
       </c>
       <c r="J33" t="n">
-        <v>126.3457049986229</v>
+        <v>210.8565790402328</v>
       </c>
       <c r="K33" t="n">
-        <v>204.5028347209179</v>
+        <v>289.0137087625277</v>
       </c>
       <c r="L33" t="n">
-        <v>339.7043925722709</v>
+        <v>424.2152666138807</v>
       </c>
       <c r="M33" t="n">
-        <v>510.0601978512712</v>
+        <v>594.571071892881</v>
       </c>
       <c r="N33" t="n">
         <v>778.8013076233331</v>
@@ -6812,19 +6812,19 @@
         <v>970.4751098002878</v>
       </c>
       <c r="U33" t="n">
-        <v>760.4813281831375</v>
+        <v>773.5465485044218</v>
       </c>
       <c r="V33" t="n">
-        <v>537.9413265542046</v>
+        <v>773.5465485044218</v>
       </c>
       <c r="W33" t="n">
-        <v>307.8240806874915</v>
+        <v>773.5465485044218</v>
       </c>
       <c r="X33" t="n">
-        <v>118.5170030375031</v>
+        <v>773.5465485044218</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.71645331491409</v>
+        <v>773.5465485044218</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>354.4326394802539</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="C34" t="n">
-        <v>354.4326394802539</v>
+        <v>644.0470471446338</v>
       </c>
       <c r="D34" t="n">
-        <v>354.4326394802539</v>
+        <v>488.4139340471485</v>
       </c>
       <c r="E34" t="n">
-        <v>354.4326394802539</v>
+        <v>488.4139340471485</v>
       </c>
       <c r="F34" t="n">
-        <v>354.4326394802539</v>
+        <v>331.0879992601215</v>
       </c>
       <c r="G34" t="n">
-        <v>275.8499411819768</v>
+        <v>163.717833306086</v>
       </c>
       <c r="H34" t="n">
-        <v>128.229957522521</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I34" t="n">
         <v>21.71645331491409</v>
@@ -6861,49 +6861,49 @@
         <v>53.19002006777016</v>
       </c>
       <c r="K34" t="n">
-        <v>70.81813212755367</v>
+        <v>235.673204870235</v>
       </c>
       <c r="L34" t="n">
-        <v>187.4895429626564</v>
+        <v>504.4143146422969</v>
       </c>
       <c r="M34" t="n">
-        <v>456.2306527347183</v>
+        <v>767.5840679293149</v>
       </c>
       <c r="N34" t="n">
-        <v>724.9717625067801</v>
+        <v>1036.325177701377</v>
       </c>
       <c r="O34" t="n">
-        <v>993.712872278842</v>
+        <v>1069.675761258582</v>
       </c>
       <c r="P34" t="n">
-        <v>1009.859776765964</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="Q34" t="n">
         <v>1085.822665745704</v>
       </c>
       <c r="R34" t="n">
-        <v>1085.822665745704</v>
+        <v>1001.66449259176</v>
       </c>
       <c r="S34" t="n">
-        <v>1085.822665745704</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="T34" t="n">
-        <v>1085.822665745704</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="U34" t="n">
-        <v>1085.822665745704</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="V34" t="n">
-        <v>1085.822665745704</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="W34" t="n">
-        <v>811.6250228806275</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="X34" t="n">
-        <v>577.5447006636106</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="Y34" t="n">
-        <v>354.4326394802539</v>
+        <v>814.2521650786446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>844.3093819101452</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="C35" t="n">
-        <v>570.1117390450681</v>
+        <v>295.914096179991</v>
       </c>
       <c r="D35" t="n">
-        <v>295.9140961799911</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="E35" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="F35" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="G35" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H35" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I35" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J35" t="n">
-        <v>69.12703774963886</v>
+        <v>69.12703774963856</v>
       </c>
       <c r="K35" t="n">
-        <v>173.1632507510114</v>
+        <v>173.163250751011</v>
       </c>
       <c r="L35" t="n">
-        <v>326.2155176981182</v>
+        <v>326.2155176981179</v>
       </c>
       <c r="M35" t="n">
-        <v>517.1007890301221</v>
+        <v>517.1007890301219</v>
       </c>
       <c r="N35" t="n">
-        <v>714.0737590629262</v>
+        <v>714.073759062926</v>
       </c>
       <c r="O35" t="n">
-        <v>891.4018293582283</v>
+        <v>891.4018293582279</v>
       </c>
       <c r="P35" t="n">
         <v>1020.321584167045</v>
       </c>
       <c r="Q35" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R35" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S35" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="T35" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="U35" t="n">
-        <v>844.3093819101452</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="V35" t="n">
-        <v>844.3093819101452</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="W35" t="n">
-        <v>844.3093819101452</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="X35" t="n">
-        <v>844.3093819101452</v>
+        <v>844.3093819101448</v>
       </c>
       <c r="Y35" t="n">
-        <v>844.3093819101452</v>
+        <v>844.3093819101448</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.55034205842765</v>
+        <v>505.937812889779</v>
       </c>
       <c r="C36" t="n">
-        <v>54.55034205842765</v>
+        <v>355.2835824498712</v>
       </c>
       <c r="D36" t="n">
-        <v>54.55034205842765</v>
+        <v>355.2835824498712</v>
       </c>
       <c r="E36" t="n">
-        <v>54.55034205842765</v>
+        <v>218.8370915607589</v>
       </c>
       <c r="F36" t="n">
-        <v>54.55034205842765</v>
+        <v>218.8370915607589</v>
       </c>
       <c r="G36" t="n">
-        <v>54.55034205842765</v>
+        <v>99.83157153658435</v>
       </c>
       <c r="H36" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I36" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J36" t="n">
-        <v>126.3457049986235</v>
+        <v>37.72227208717188</v>
       </c>
       <c r="K36" t="n">
-        <v>204.5028347209184</v>
+        <v>115.8794018094668</v>
       </c>
       <c r="L36" t="n">
-        <v>339.7043925722714</v>
+        <v>251.0809596608198</v>
       </c>
       <c r="M36" t="n">
-        <v>510.0601978512717</v>
+        <v>421.4367649398201</v>
       </c>
       <c r="N36" t="n">
-        <v>778.8013076233337</v>
+        <v>605.6670006702722</v>
       </c>
       <c r="O36" t="n">
-        <v>932.8931141395162</v>
+        <v>759.7588071864546</v>
       </c>
       <c r="P36" t="n">
-        <v>1043.998880784255</v>
+        <v>870.8645738311932</v>
       </c>
       <c r="Q36" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R36" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S36" t="n">
-        <v>1085.822665745705</v>
+        <v>970.4751098002878</v>
       </c>
       <c r="T36" t="n">
-        <v>1085.822665745705</v>
+        <v>797.7408584103374</v>
       </c>
       <c r="U36" t="n">
-        <v>875.8288841285548</v>
+        <v>657.7341473307404</v>
       </c>
       <c r="V36" t="n">
-        <v>653.2888824996219</v>
+        <v>657.7341473307404</v>
       </c>
       <c r="W36" t="n">
-        <v>423.1716366329088</v>
+        <v>657.7341473307404</v>
       </c>
       <c r="X36" t="n">
-        <v>233.8645589829204</v>
+        <v>657.7341473307404</v>
       </c>
       <c r="Y36" t="n">
-        <v>54.55034205842765</v>
+        <v>657.7341473307404</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.3495664123994</v>
+        <v>603.3809939030145</v>
       </c>
       <c r="C37" t="n">
-        <v>177.3495664123994</v>
+        <v>433.1758759690038</v>
       </c>
       <c r="D37" t="n">
-        <v>21.7164533149141</v>
+        <v>433.1758759690038</v>
       </c>
       <c r="E37" t="n">
-        <v>21.7164533149141</v>
+        <v>433.1758759690038</v>
       </c>
       <c r="F37" t="n">
-        <v>21.7164533149141</v>
+        <v>275.8499411819768</v>
       </c>
       <c r="G37" t="n">
-        <v>21.7164533149141</v>
+        <v>275.8499411819768</v>
       </c>
       <c r="H37" t="n">
-        <v>21.7164533149141</v>
+        <v>128.229957522521</v>
       </c>
       <c r="I37" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J37" t="n">
-        <v>53.19002006777017</v>
+        <v>53.19002006777016</v>
       </c>
       <c r="K37" t="n">
-        <v>70.81813212755368</v>
+        <v>70.81813212755367</v>
       </c>
       <c r="L37" t="n">
-        <v>339.5592418996157</v>
+        <v>112.814814923951</v>
       </c>
       <c r="M37" t="n">
-        <v>385.9567394982031</v>
+        <v>381.5559246960129</v>
       </c>
       <c r="N37" t="n">
-        <v>592.430515104316</v>
+        <v>650.2970344680748</v>
       </c>
       <c r="O37" t="n">
-        <v>861.171624876378</v>
+        <v>919.0381442401367</v>
       </c>
       <c r="P37" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="Q37" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R37" t="n">
-        <v>1085.822665745705</v>
+        <v>1001.66449259176</v>
       </c>
       <c r="S37" t="n">
-        <v>898.4103382325891</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="T37" t="n">
-        <v>666.4678985359496</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="U37" t="n">
-        <v>411.4298886294163</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="V37" t="n">
-        <v>411.4298886294163</v>
+        <v>814.2521650786446</v>
       </c>
       <c r="W37" t="n">
-        <v>411.4298886294163</v>
+        <v>603.3809939030145</v>
       </c>
       <c r="X37" t="n">
-        <v>177.3495664123994</v>
+        <v>603.3809939030145</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.3495664123994</v>
+        <v>603.3809939030145</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>844.3093819101448</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="C38" t="n">
-        <v>844.3093819101448</v>
+        <v>341.1550901187949</v>
       </c>
       <c r="D38" t="n">
-        <v>844.3093819101448</v>
+        <v>341.1550901187949</v>
       </c>
       <c r="E38" t="n">
-        <v>570.1117390450679</v>
+        <v>341.1550901187949</v>
       </c>
       <c r="F38" t="n">
-        <v>295.914096179991</v>
+        <v>66.95744725371787</v>
       </c>
       <c r="G38" t="n">
-        <v>295.914096179991</v>
+        <v>66.95744725371787</v>
       </c>
       <c r="H38" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="I38" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="J38" t="n">
-        <v>69.12703774963856</v>
+        <v>69.1270377496387</v>
       </c>
       <c r="K38" t="n">
-        <v>173.163250751011</v>
+        <v>173.1632507510114</v>
       </c>
       <c r="L38" t="n">
-        <v>326.2155176981178</v>
+        <v>326.2155176981183</v>
       </c>
       <c r="M38" t="n">
-        <v>517.1007890301216</v>
+        <v>517.1007890301223</v>
       </c>
       <c r="N38" t="n">
-        <v>714.0737590629258</v>
+        <v>714.0737590629265</v>
       </c>
       <c r="O38" t="n">
-        <v>891.4018293582278</v>
+        <v>891.4018293582284</v>
       </c>
       <c r="P38" t="n">
         <v>1020.321584167045</v>
       </c>
       <c r="Q38" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R38" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S38" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="T38" t="n">
-        <v>870.9478244248685</v>
+        <v>870.9478244248689</v>
       </c>
       <c r="U38" t="n">
-        <v>844.3093819101448</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="V38" t="n">
-        <v>844.3093819101448</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="W38" t="n">
-        <v>844.3093819101448</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="X38" t="n">
-        <v>844.3093819101448</v>
+        <v>615.3527329838719</v>
       </c>
       <c r="Y38" t="n">
-        <v>844.3093819101448</v>
+        <v>615.3527329838719</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>499.5802893791864</v>
+        <v>153.8099354583437</v>
       </c>
       <c r="C39" t="n">
-        <v>348.9260589392786</v>
+        <v>153.8099354583437</v>
       </c>
       <c r="D39" t="n">
-        <v>218.8370915607589</v>
+        <v>153.8099354583437</v>
       </c>
       <c r="E39" t="n">
-        <v>218.8370915607589</v>
+        <v>153.8099354583437</v>
       </c>
       <c r="F39" t="n">
-        <v>218.8370915607589</v>
+        <v>153.8099354583437</v>
       </c>
       <c r="G39" t="n">
-        <v>99.83157153658435</v>
+        <v>34.80441543416912</v>
       </c>
       <c r="H39" t="n">
-        <v>21.71645331491409</v>
+        <v>34.80441543416912</v>
       </c>
       <c r="I39" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="J39" t="n">
-        <v>170.1413538177045</v>
+        <v>37.72227208717189</v>
       </c>
       <c r="K39" t="n">
-        <v>248.2984835399994</v>
+        <v>115.8794018094668</v>
       </c>
       <c r="L39" t="n">
-        <v>383.5000413913525</v>
+        <v>251.0809596608198</v>
       </c>
       <c r="M39" t="n">
-        <v>553.8558466703528</v>
+        <v>421.4367649398201</v>
       </c>
       <c r="N39" t="n">
-        <v>738.0860824008048</v>
+        <v>605.6670006702722</v>
       </c>
       <c r="O39" t="n">
-        <v>892.1778889169873</v>
+        <v>759.7588071864546</v>
       </c>
       <c r="P39" t="n">
-        <v>1003.283655561726</v>
+        <v>870.8645738311932</v>
       </c>
       <c r="Q39" t="n">
-        <v>1045.107440523176</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R39" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S39" t="n">
-        <v>970.4751098002878</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="T39" t="n">
-        <v>970.4751098002878</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="U39" t="n">
-        <v>881.4938696868608</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="V39" t="n">
-        <v>881.4938696868608</v>
+        <v>904.3448103404992</v>
       </c>
       <c r="W39" t="n">
-        <v>651.3766238201476</v>
+        <v>674.2275644737861</v>
       </c>
       <c r="X39" t="n">
-        <v>651.3766238201476</v>
+        <v>484.9204868237978</v>
       </c>
       <c r="Y39" t="n">
-        <v>651.3766238201476</v>
+        <v>305.606269899305</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.4803833897224</v>
+        <v>128.4952193135114</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2752654557116</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="D40" t="n">
-        <v>177.2752654557116</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="E40" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="F40" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="G40" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="H40" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="I40" t="n">
-        <v>21.71645331491409</v>
+        <v>21.7164533149141</v>
       </c>
       <c r="J40" t="n">
-        <v>21.71645331491409</v>
+        <v>53.19002006777016</v>
       </c>
       <c r="K40" t="n">
-        <v>39.34456537469759</v>
+        <v>235.6732048702351</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0856751467595</v>
+        <v>422.8800691775131</v>
       </c>
       <c r="M40" t="n">
-        <v>354.4831727453468</v>
+        <v>691.6211789495751</v>
       </c>
       <c r="N40" t="n">
-        <v>623.2242825174087</v>
+        <v>960.362288721637</v>
       </c>
       <c r="O40" t="n">
-        <v>891.9653922894706</v>
+        <v>993.7128722788425</v>
       </c>
       <c r="P40" t="n">
-        <v>1009.859776765964</v>
+        <v>1009.859776765965</v>
       </c>
       <c r="Q40" t="n">
-        <v>1085.822665745704</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="R40" t="n">
-        <v>1001.66449259176</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="S40" t="n">
-        <v>1001.66449259176</v>
+        <v>1085.822665745705</v>
       </c>
       <c r="T40" t="n">
-        <v>1001.66449259176</v>
+        <v>853.8802260490654</v>
       </c>
       <c r="U40" t="n">
-        <v>727.4668497266836</v>
+        <v>579.6825831839884</v>
       </c>
       <c r="V40" t="n">
-        <v>727.4668497266836</v>
+        <v>313.7032380048126</v>
       </c>
       <c r="W40" t="n">
-        <v>727.4668497266836</v>
+        <v>313.7032380048126</v>
       </c>
       <c r="X40" t="n">
-        <v>727.4668497266836</v>
+        <v>313.7032380048126</v>
       </c>
       <c r="Y40" t="n">
-        <v>532.6884020810237</v>
+        <v>313.7032380048126</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>570.1117390450681</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="C41" t="n">
-        <v>570.1117390450681</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="D41" t="n">
-        <v>570.1117390450681</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="E41" t="n">
-        <v>570.1117390450681</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="F41" t="n">
-        <v>570.1117390450681</v>
+        <v>295.914096179991</v>
       </c>
       <c r="G41" t="n">
-        <v>295.9140961799911</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H41" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I41" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J41" t="n">
-        <v>69.1270377496387</v>
+        <v>69.12703774963856</v>
       </c>
       <c r="K41" t="n">
-        <v>173.1632507510112</v>
+        <v>173.163250751011</v>
       </c>
       <c r="L41" t="n">
-        <v>326.2155176981181</v>
+        <v>326.2155176981179</v>
       </c>
       <c r="M41" t="n">
-        <v>517.1007890301221</v>
+        <v>517.1007890301219</v>
       </c>
       <c r="N41" t="n">
-        <v>714.0737590629262</v>
+        <v>714.073759062926</v>
       </c>
       <c r="O41" t="n">
-        <v>891.4018293582282</v>
+        <v>891.401829358228</v>
       </c>
       <c r="P41" t="n">
         <v>1020.321584167045</v>
@@ -7438,25 +7438,25 @@
         <v>1085.822665745705</v>
       </c>
       <c r="S41" t="n">
-        <v>964.2113451850406</v>
+        <v>964.2113451850404</v>
       </c>
       <c r="T41" t="n">
-        <v>964.2113451850406</v>
+        <v>749.3365038642044</v>
       </c>
       <c r="U41" t="n">
-        <v>844.3093819101451</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="V41" t="n">
-        <v>844.3093819101451</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="W41" t="n">
-        <v>570.1117390450681</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="X41" t="n">
-        <v>570.1117390450681</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="Y41" t="n">
-        <v>570.1117390450681</v>
+        <v>570.1117390450679</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>624.0120954960546</v>
+        <v>219.9402349181325</v>
       </c>
       <c r="C42" t="n">
-        <v>473.3578650561467</v>
+        <v>219.9402349181325</v>
       </c>
       <c r="D42" t="n">
-        <v>343.2688976776271</v>
+        <v>89.85126753961282</v>
       </c>
       <c r="E42" t="n">
-        <v>343.2688976776271</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="F42" t="n">
-        <v>218.8370915607589</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="G42" t="n">
-        <v>99.83157153658436</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="H42" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I42" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J42" t="n">
-        <v>126.3457049986233</v>
+        <v>37.72227208717189</v>
       </c>
       <c r="K42" t="n">
-        <v>204.5028347209182</v>
+        <v>115.8794018094668</v>
       </c>
       <c r="L42" t="n">
-        <v>339.7043925722712</v>
+        <v>251.0809596608198</v>
       </c>
       <c r="M42" t="n">
-        <v>510.0601978512715</v>
+        <v>421.4367649398201</v>
       </c>
       <c r="N42" t="n">
-        <v>778.8013076233335</v>
+        <v>605.6670006702722</v>
       </c>
       <c r="O42" t="n">
-        <v>932.893114139516</v>
+        <v>759.7588071864546</v>
       </c>
       <c r="P42" t="n">
-        <v>1043.998880784254</v>
+        <v>870.8645738311932</v>
       </c>
       <c r="Q42" t="n">
         <v>1085.822665745705</v>
@@ -7517,25 +7517,25 @@
         <v>1085.822665745705</v>
       </c>
       <c r="S42" t="n">
-        <v>970.4751098002882</v>
+        <v>970.475109800288</v>
       </c>
       <c r="T42" t="n">
-        <v>970.4751098002882</v>
+        <v>970.475109800288</v>
       </c>
       <c r="U42" t="n">
-        <v>970.4751098002882</v>
+        <v>970.475109800288</v>
       </c>
       <c r="V42" t="n">
-        <v>970.4751098002882</v>
+        <v>970.475109800288</v>
       </c>
       <c r="W42" t="n">
-        <v>740.3578639335751</v>
+        <v>740.3578639335749</v>
       </c>
       <c r="X42" t="n">
-        <v>740.3578639335751</v>
+        <v>551.0507862835866</v>
       </c>
       <c r="Y42" t="n">
-        <v>740.3578639335751</v>
+        <v>371.7365693590938</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>158.1899334538555</v>
+        <v>295.6001234765565</v>
       </c>
       <c r="C43" t="n">
-        <v>158.1899334538555</v>
+        <v>295.6001234765565</v>
       </c>
       <c r="D43" t="n">
-        <v>158.1899334538555</v>
+        <v>295.6001234765565</v>
       </c>
       <c r="E43" t="n">
-        <v>158.1899334538555</v>
+        <v>295.6001234765565</v>
       </c>
       <c r="F43" t="n">
-        <v>158.1899334538555</v>
+        <v>295.6001234765565</v>
       </c>
       <c r="G43" t="n">
-        <v>158.1899334538555</v>
+        <v>128.229957522521</v>
       </c>
       <c r="H43" t="n">
         <v>128.229957522521</v>
       </c>
       <c r="I43" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J43" t="n">
-        <v>53.19002006777016</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="K43" t="n">
-        <v>235.6732048702351</v>
+        <v>137.0878823145911</v>
       </c>
       <c r="L43" t="n">
-        <v>495.631356857663</v>
+        <v>405.828992086653</v>
       </c>
       <c r="M43" t="n">
-        <v>542.0288544562504</v>
+        <v>674.5701018587149</v>
       </c>
       <c r="N43" t="n">
-        <v>592.4305151043159</v>
+        <v>724.9717625067804</v>
       </c>
       <c r="O43" t="n">
-        <v>861.1716248763778</v>
+        <v>993.7128722788423</v>
       </c>
       <c r="P43" t="n">
-        <v>1085.822665745705</v>
+        <v>1009.859776765964</v>
       </c>
       <c r="Q43" t="n">
         <v>1085.822665745705</v>
       </c>
       <c r="R43" t="n">
-        <v>1085.822665745705</v>
+        <v>1001.664492591761</v>
       </c>
       <c r="S43" t="n">
-        <v>898.4103382325889</v>
+        <v>814.2521650786448</v>
       </c>
       <c r="T43" t="n">
-        <v>666.4678985359494</v>
+        <v>582.3097253820054</v>
       </c>
       <c r="U43" t="n">
-        <v>392.2702556708724</v>
+        <v>582.3097253820054</v>
       </c>
       <c r="V43" t="n">
-        <v>392.2702556708724</v>
+        <v>529.6804456935735</v>
       </c>
       <c r="W43" t="n">
-        <v>392.2702556708724</v>
+        <v>529.6804456935735</v>
       </c>
       <c r="X43" t="n">
-        <v>158.1899334538555</v>
+        <v>295.6001234765565</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.1899334538555</v>
+        <v>295.6001234765565</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>295.9140961799911</v>
+        <v>615.3527329838714</v>
       </c>
       <c r="C44" t="n">
-        <v>295.9140961799911</v>
+        <v>615.3527329838714</v>
       </c>
       <c r="D44" t="n">
-        <v>21.7164533149141</v>
+        <v>615.3527329838714</v>
       </c>
       <c r="E44" t="n">
-        <v>21.7164533149141</v>
+        <v>570.1117390450679</v>
       </c>
       <c r="F44" t="n">
-        <v>21.7164533149141</v>
+        <v>295.914096179991</v>
       </c>
       <c r="G44" t="n">
-        <v>21.7164533149141</v>
+        <v>295.914096179991</v>
       </c>
       <c r="H44" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="I44" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J44" t="n">
-        <v>69.12703774963886</v>
+        <v>69.12703774963848</v>
       </c>
       <c r="K44" t="n">
-        <v>173.1632507510114</v>
+        <v>173.163250751011</v>
       </c>
       <c r="L44" t="n">
-        <v>326.2155176981182</v>
+        <v>326.2155176981178</v>
       </c>
       <c r="M44" t="n">
-        <v>517.1007890301221</v>
+        <v>517.1007890301216</v>
       </c>
       <c r="N44" t="n">
-        <v>714.0737590629262</v>
+        <v>714.0737590629258</v>
       </c>
       <c r="O44" t="n">
-        <v>891.4018293582283</v>
+        <v>891.4018293582276</v>
       </c>
       <c r="P44" t="n">
         <v>1020.321584167045</v>
       </c>
       <c r="Q44" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R44" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S44" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="T44" t="n">
-        <v>1085.822665745705</v>
+        <v>870.9478244248685</v>
       </c>
       <c r="U44" t="n">
-        <v>1085.822665745705</v>
+        <v>615.3527329838714</v>
       </c>
       <c r="V44" t="n">
-        <v>1085.822665745705</v>
+        <v>615.3527329838714</v>
       </c>
       <c r="W44" t="n">
-        <v>811.6250228806279</v>
+        <v>615.3527329838714</v>
       </c>
       <c r="X44" t="n">
-        <v>811.6250228806279</v>
+        <v>615.3527329838714</v>
       </c>
       <c r="Y44" t="n">
-        <v>537.4273800155509</v>
+        <v>615.3527329838714</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.7164533149141</v>
+        <v>362.0140210585336</v>
       </c>
       <c r="C45" t="n">
-        <v>21.7164533149141</v>
+        <v>362.0140210585336</v>
       </c>
       <c r="D45" t="n">
-        <v>21.7164533149141</v>
+        <v>231.9250536800139</v>
       </c>
       <c r="E45" t="n">
-        <v>21.7164533149141</v>
+        <v>231.9250536800139</v>
       </c>
       <c r="F45" t="n">
-        <v>21.7164533149141</v>
+        <v>231.9250536800139</v>
       </c>
       <c r="G45" t="n">
-        <v>21.7164533149141</v>
+        <v>112.9195336558394</v>
       </c>
       <c r="H45" t="n">
-        <v>21.7164533149141</v>
+        <v>34.80441543416911</v>
       </c>
       <c r="I45" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J45" t="n">
-        <v>170.141353817705</v>
+        <v>37.72227208717188</v>
       </c>
       <c r="K45" t="n">
-        <v>248.2984835399999</v>
+        <v>115.8794018094668</v>
       </c>
       <c r="L45" t="n">
-        <v>383.5000413913529</v>
+        <v>251.0809596608198</v>
       </c>
       <c r="M45" t="n">
-        <v>553.8558466703532</v>
+        <v>421.4367649398201</v>
       </c>
       <c r="N45" t="n">
-        <v>738.0860824008053</v>
+        <v>605.6670006702722</v>
       </c>
       <c r="O45" t="n">
-        <v>892.1778889169877</v>
+        <v>759.7588071864546</v>
       </c>
       <c r="P45" t="n">
         <v>1003.283655561726</v>
       </c>
       <c r="Q45" t="n">
-        <v>1045.107440523177</v>
+        <v>1045.107440523176</v>
       </c>
       <c r="R45" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S45" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="T45" t="n">
-        <v>1085.822665745705</v>
+        <v>913.088414355754</v>
       </c>
       <c r="U45" t="n">
-        <v>875.8288841285546</v>
+        <v>913.088414355754</v>
       </c>
       <c r="V45" t="n">
-        <v>653.2888824996216</v>
+        <v>690.5484127268211</v>
       </c>
       <c r="W45" t="n">
-        <v>423.1716366329085</v>
+        <v>460.431166860108</v>
       </c>
       <c r="X45" t="n">
-        <v>233.8645589829202</v>
+        <v>362.0140210585336</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.55034205842742</v>
+        <v>362.0140210585336</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>853.8802260490654</v>
+        <v>613.4252250700231</v>
       </c>
       <c r="C46" t="n">
-        <v>853.8802260490654</v>
+        <v>443.2201071360123</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1048540638369</v>
+        <v>443.2201071360123</v>
       </c>
       <c r="E46" t="n">
-        <v>600.5460419230394</v>
+        <v>443.2201071360123</v>
       </c>
       <c r="F46" t="n">
         <v>443.2201071360123</v>
@@ -7803,55 +7803,55 @@
         <v>128.229957522521</v>
       </c>
       <c r="I46" t="n">
-        <v>21.7164533149141</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="J46" t="n">
-        <v>53.19002006777016</v>
+        <v>21.71645331491409</v>
       </c>
       <c r="K46" t="n">
-        <v>235.6732048702351</v>
+        <v>204.199638117379</v>
       </c>
       <c r="L46" t="n">
-        <v>419.6684678779226</v>
+        <v>290.3388217750481</v>
       </c>
       <c r="M46" t="n">
-        <v>466.06596547651</v>
+        <v>559.0799315471099</v>
       </c>
       <c r="N46" t="n">
-        <v>516.4676261245754</v>
+        <v>827.8210413191719</v>
       </c>
       <c r="O46" t="n">
-        <v>785.2087358966374</v>
+        <v>861.1716248763773</v>
       </c>
       <c r="P46" t="n">
-        <v>1009.859776765965</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="Q46" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="R46" t="n">
-        <v>1085.822665745705</v>
+        <v>1085.822665745704</v>
       </c>
       <c r="S46" t="n">
-        <v>1085.822665745705</v>
+        <v>898.4103382325884</v>
       </c>
       <c r="T46" t="n">
-        <v>853.8802260490654</v>
+        <v>666.467898535949</v>
       </c>
       <c r="U46" t="n">
-        <v>853.8802260490654</v>
+        <v>613.4252250700231</v>
       </c>
       <c r="V46" t="n">
-        <v>853.8802260490654</v>
+        <v>613.4252250700231</v>
       </c>
       <c r="W46" t="n">
-        <v>853.8802260490654</v>
+        <v>613.4252250700231</v>
       </c>
       <c r="X46" t="n">
-        <v>853.8802260490654</v>
+        <v>613.4252250700231</v>
       </c>
       <c r="Y46" t="n">
-        <v>853.8802260490654</v>
+        <v>613.4252250700231</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +8224,7 @@
         <v>30.91197545483701</v>
       </c>
       <c r="M5" t="n">
-        <v>13.60246380497313</v>
+        <v>13.6024638049731</v>
       </c>
       <c r="N5" t="n">
         <v>10.7932977627591</v>
@@ -8382,7 +8382,7 @@
         <v>35.97575015027785</v>
       </c>
       <c r="M7" t="n">
-        <v>35.79210763460761</v>
+        <v>35.7921076346076</v>
       </c>
       <c r="N7" t="n">
         <v>29.78206965893037</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17.59043115681048</v>
+        <v>17.59043115681042</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>99.37909544753688</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.37755276512223</v>
+        <v>174.8831383364254</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>29.88731478189459</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.4725364634484</v>
+        <v>20.68105489490688</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>229.0347747228934</v>
+        <v>229.0347747228936</v>
       </c>
       <c r="M13" t="n">
-        <v>224.5895072459338</v>
+        <v>174.0231651126735</v>
       </c>
       <c r="N13" t="n">
-        <v>220.5448981050469</v>
+        <v>220.544898105047</v>
       </c>
       <c r="O13" t="n">
-        <v>160.8926426844824</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.20482418066571</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>133.756648212659</v>
+        <v>133.7566482126597</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>20.68105489490691</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>229.0347747228934</v>
+        <v>17.43041518042482</v>
       </c>
       <c r="M16" t="n">
-        <v>224.5895072459337</v>
+        <v>224.5895072459339</v>
       </c>
       <c r="N16" t="n">
-        <v>220.5448981050468</v>
+        <v>220.544898105047</v>
       </c>
       <c r="O16" t="n">
-        <v>84.16245179585587</v>
+        <v>237.7682082978349</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>25.20482418066571</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>48.39212897870974</v>
+        <v>133.7566482126593</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>85.36451923394927</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>20.68105489490691</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
         <v>229.0347747228934</v>
       </c>
       <c r="M19" t="n">
-        <v>102.7752323124964</v>
+        <v>224.5895072459338</v>
       </c>
       <c r="N19" t="n">
-        <v>220.5448981050468</v>
+        <v>169.9785559717864</v>
       </c>
       <c r="O19" t="n">
-        <v>237.7682082978347</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>133.7566482126593</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>174.8831383364251</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>29.88731478189462</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>20.68105489490691</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>224.5895072459338</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>220.5448981050469</v>
       </c>
       <c r="O22" t="n">
-        <v>188.4030919247757</v>
+        <v>237.7682082978347</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>183.9506906780827</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>25.20482418066571</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.7566482126596</v>
+        <v>174.8831383364255</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>29.88731478189462</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.4725364634484</v>
+        <v>20.68105489490691</v>
       </c>
       <c r="K25" t="n">
-        <v>75.42901822091476</v>
+        <v>112.7098916476394</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>229.0347747228935</v>
       </c>
       <c r="M25" t="n">
-        <v>224.5895072459339</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>220.544898105047</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>237.7682082978349</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q25" t="n">
         <v>101.9350150692923</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>174.8831383364256</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>174.8831383364255</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.88731478189462</v>
@@ -10038,22 +10038,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>229.0347747228935</v>
+        <v>17.43041518042482</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>224.5895072459339</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>220.544898105047</v>
       </c>
       <c r="O28" t="n">
-        <v>183.9578244478163</v>
+        <v>237.7682082978349</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.9350150692923</v>
+        <v>25.20482418066571</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>99.37909544753688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>75.50404288888828</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.7566482126594</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>29.88731478189462</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>20.68105489490691</v>
       </c>
       <c r="K31" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>183.9506906780825</v>
       </c>
       <c r="M31" t="n">
         <v>224.5895072459338</v>
       </c>
       <c r="N31" t="n">
-        <v>161.245122396845</v>
+        <v>220.5448981050469</v>
       </c>
       <c r="O31" t="n">
-        <v>237.7682082978348</v>
+        <v>237.7682082978347</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>25.20482418066571</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>89.51861910247582</v>
+        <v>174.8831383364252</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>85.3645192339493</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
-        <v>75.42901822091453</v>
+        <v>229.0347747228934</v>
       </c>
       <c r="M34" t="n">
-        <v>224.5895072459338</v>
+        <v>218.9618744327582</v>
       </c>
       <c r="N34" t="n">
         <v>220.5448981050469</v>
       </c>
       <c r="O34" t="n">
-        <v>237.7682082978347</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>25.20482418066571</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>89.51861910247632</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>85.36451923394952</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>174.8831383364251</v>
       </c>
       <c r="R36" t="n">
         <v>29.88731478189462</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>229.0347747228936</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>224.5895072459338</v>
       </c>
       <c r="N37" t="n">
-        <v>157.6486009677247</v>
+        <v>220.5448981050469</v>
       </c>
       <c r="O37" t="n">
-        <v>237.7682082978349</v>
+        <v>237.7682082978347</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>152.1592091095411</v>
       </c>
       <c r="Q37" t="n">
         <v>25.20482418066571</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>133.7566482126593</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>174.8831383364255</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>29.88731478189462</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.68105489490691</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>229.0347747228934</v>
+        <v>146.6769510210916</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>224.5895072459339</v>
       </c>
       <c r="N40" t="n">
-        <v>220.5448981050469</v>
+        <v>220.544898105047</v>
       </c>
       <c r="O40" t="n">
-        <v>237.7682082978347</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>102.7752323124964</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>101.9350150692923</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>89.51861910247615</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>85.36451923394944</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>174.8831383364253</v>
       </c>
       <c r="R42" t="n">
         <v>29.88731478189462</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>20.68105489490691</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>98.73062317160957</v>
       </c>
       <c r="L43" t="n">
-        <v>220.1631001929603</v>
+        <v>229.0347747228935</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>224.5895072459338</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>237.7682082978349</v>
+        <v>237.7682082978348</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.20482418066571</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>133.7566482126597</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.7566482126592</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>20.68105489490691</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>143.4329093043335</v>
+        <v>44.58838470835532</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>224.5895072459338</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>220.5448981050469</v>
       </c>
       <c r="O46" t="n">
-        <v>237.7682082978349</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>25.20482418066571</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>8.255903748422527</v>
+        <v>8.255903748422554</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>110.1310510590726</v>
       </c>
       <c r="E11" t="n">
-        <v>341.6013623161152</v>
+        <v>127.1020231981946</v>
       </c>
       <c r="F11" t="n">
-        <v>141.2698276488959</v>
+        <v>294.0225504431754</v>
       </c>
       <c r="G11" t="n">
-        <v>135.6246897309476</v>
+        <v>135.6246897309474</v>
       </c>
       <c r="H11" t="n">
-        <v>29.40821190349931</v>
+        <v>300.8638783399254</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.74661632364071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -23351,13 +23351,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>95.86687213864811</v>
+        <v>117.8154648239328</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.95708249806246</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8938438009787</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>116.4115814289704</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23424,13 +23424,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>133.7911028367795</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6964642944951</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>146.1437838228612</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.5382042379848</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.6230152996731</v>
       </c>
       <c r="U13" t="n">
-        <v>11.08100745497995</v>
+        <v>282.5366738914061</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>17.5404219119435</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>125.0341318178567</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>221.2061549610577</v>
+        <v>127.1020231981947</v>
       </c>
       <c r="F14" t="n">
-        <v>141.269827648896</v>
+        <v>173.6273430881178</v>
       </c>
       <c r="G14" t="n">
-        <v>135.6246897309477</v>
+        <v>135.6246897309475</v>
       </c>
       <c r="H14" t="n">
-        <v>29.40821190349936</v>
+        <v>300.8638783399254</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.74661632364075</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,7 +23582,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>16.58761679997747</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -23591,7 +23591,7 @@
         <v>117.8154648239328</v>
       </c>
       <c r="H15" t="n">
-        <v>77.33396703945355</v>
+        <v>31.0464195602078</v>
       </c>
       <c r="I15" t="n">
         <v>12.95708249806247</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>114.1940803859624</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>171.0069088760509</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8938438009787</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6964642944951</v>
       </c>
       <c r="H16" t="n">
         <v>146.1437838228612</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.4483691655308</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.31659142240446</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>185.5382042379848</v>
@@ -23712,16 +23712,16 @@
         <v>282.5366738914061</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>130.5125293814054</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>19.91416269327726</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>117.7880800456726</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23785,19 +23785,19 @@
         <v>120.3952073550576</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.7260929076276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0391405265871</v>
       </c>
       <c r="V17" t="n">
-        <v>67.23007476709074</v>
+        <v>99.5875902063128</v>
       </c>
       <c r="W17" t="n">
-        <v>95.83337824496937</v>
+        <v>95.83337824496931</v>
       </c>
       <c r="X17" t="n">
-        <v>340.7694950168583</v>
+        <v>114.1024125798476</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23816,10 +23816,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>49.65754456058731</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12.95708249806247</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.8938438009787</v>
       </c>
       <c r="V18" t="n">
-        <v>126.320312766523</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.24719316683678</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>150.8918163480976</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23940,22 +23940,22 @@
         <v>83.31659142240446</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>185.5382042379848</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>11.08100745498001</v>
+        <v>11.08100745497995</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>9.041431611708049</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125.0341318178568</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>110.1310510590728</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>141.2698276488959</v>
       </c>
       <c r="G20" t="n">
-        <v>407.0803561673737</v>
+        <v>135.6246897309476</v>
       </c>
       <c r="H20" t="n">
-        <v>29.40821190349931</v>
+        <v>300.8638783399254</v>
       </c>
       <c r="I20" t="n">
         <v>61.74661632364075</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.3952073550576</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.7260929076276</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0391405265871</v>
+        <v>134.3361968844407</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>128.1908936841914</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>121.0701355521788</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>19.72769528295687</v>
+        <v>117.8154648239328</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>114.1940803859624</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>171.0069088760509</v>
@@ -24107,7 +24107,7 @@
         <v>207.8938438009787</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>87.27322432212146</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,7 +24138,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>1.007921842254092</v>
       </c>
       <c r="G22" t="n">
         <v>165.6964642944951</v>
@@ -24147,7 +24147,7 @@
         <v>146.1437838228612</v>
       </c>
       <c r="I22" t="n">
-        <v>41.57004196367293</v>
+        <v>105.4483691655308</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.31659142240446</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>185.5382042379848</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6230152996731</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>11.08100745497995</v>
+        <v>282.5366738914061</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>9.041431611708049</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>125.0341318178567</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,16 +24214,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>127.1020231981947</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>141.2698276488958</v>
       </c>
       <c r="G23" t="n">
         <v>407.0803561673737</v>
       </c>
       <c r="H23" t="n">
-        <v>300.8638783399254</v>
+        <v>274.4918202503488</v>
       </c>
       <c r="I23" t="n">
         <v>61.74661632364075</v>
@@ -24259,22 +24259,22 @@
         <v>120.3952073550576</v>
       </c>
       <c r="T23" t="n">
-        <v>212.7260929076276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0391405265871</v>
       </c>
       <c r="V23" t="n">
-        <v>67.23007476709057</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>109.7743677743521</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>121.0701355521787</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>119.8830876708293</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>171.0069088760509</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8938438009787</v>
+        <v>177.4985603752564</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24369,22 +24369,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>96.51094406185022</v>
+        <v>165.6964642944951</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>84.44772235459965</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.4483691655308</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>83.31659142240446</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>229.6230152996731</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5366738914061</v>
+        <v>11.08100745497984</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>9.041431611707935</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24445,7 +24445,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>117.7880800456725</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24454,13 +24454,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>141.2698276488958</v>
       </c>
       <c r="G26" t="n">
-        <v>407.0803561673737</v>
+        <v>362.291772167958</v>
       </c>
       <c r="H26" t="n">
-        <v>300.8638783399254</v>
+        <v>29.40821190349919</v>
       </c>
       <c r="I26" t="n">
         <v>61.74661632364075</v>
@@ -24496,19 +24496,19 @@
         <v>120.3952073550576</v>
       </c>
       <c r="T26" t="n">
-        <v>212.7260929076276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.94098952938302</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>95.8333782449692</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>114.1024125798475</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24527,22 +24527,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>104.8214971061301</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
         <v>117.8154648239328</v>
       </c>
       <c r="H27" t="n">
-        <v>77.33396703945355</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>12.95708249806247</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>114.1940803859624</v>
       </c>
       <c r="T27" t="n">
         <v>171.0069088760509</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8938438009787</v>
+        <v>74.09829809505376</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24651,25 +24651,25 @@
         <v>83.31659142240446</v>
       </c>
       <c r="S28" t="n">
-        <v>185.5382042379848</v>
+        <v>167.9269538314116</v>
       </c>
       <c r="T28" t="n">
-        <v>229.6230152996731</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5366738914061</v>
+        <v>11.08100745497984</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>185.5881945335905</v>
+        <v>9.041431611707935</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>117.7880800456725</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>110.1310510590728</v>
       </c>
       <c r="E29" t="n">
-        <v>127.1020231981947</v>
+        <v>127.1020231981948</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>141.2698276488959</v>
       </c>
       <c r="G29" t="n">
         <v>407.0803561673737</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>94.0231492654809</v>
+        <v>120.3952073550576</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.7260929076276</v>
       </c>
       <c r="U29" t="n">
         <v>253.0391405265871</v>
       </c>
       <c r="V29" t="n">
-        <v>67.23007476709063</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>128.1908936841914</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
@@ -24767,7 +24767,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>58.92667446800951</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
@@ -24812,7 +24812,7 @@
         <v>114.1940803859624</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>138.5013590199731</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>18.70727735437129</v>
+        <v>41.43484629495319</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6964642944951</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>146.1437838228612</v>
@@ -24888,25 +24888,25 @@
         <v>83.31659142240446</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.5382042379848</v>
       </c>
       <c r="T31" t="n">
         <v>229.6230152996731</v>
       </c>
       <c r="U31" t="n">
-        <v>11.08100745497988</v>
+        <v>282.5366738914061</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>125.0341318178568</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24925,7 +24925,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>127.1020231981948</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>141.2698276488959</v>
@@ -24934,7 +24934,7 @@
         <v>407.0803561673737</v>
       </c>
       <c r="H32" t="n">
-        <v>300.8638783399254</v>
+        <v>29.40821190349931</v>
       </c>
       <c r="I32" t="n">
         <v>61.74661632364075</v>
@@ -24970,13 +24970,13 @@
         <v>120.3952073550576</v>
       </c>
       <c r="T32" t="n">
-        <v>212.7260929076276</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.0391405265871</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>312.3136831139403</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>153.4276509914009</v>
+        <v>121.0701355521788</v>
       </c>
     </row>
     <row r="33">
@@ -24998,25 +24998,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>117.8154648239328</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.33396703945355</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12.95708249806247</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>171.0069088760509</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>12.93456811807144</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>81.68853052988472</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25077,25 +25077,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>87.8995929792008</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.562417631601022</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.4483691655308</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.31659142240446</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.5382042379848</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.6230152996731</v>
@@ -25137,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>9.041431611708049</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>125.0341318178568</v>
       </c>
       <c r="C35" t="n">
-        <v>117.7880800456724</v>
+        <v>117.7880800456726</v>
       </c>
       <c r="D35" t="n">
-        <v>110.1310510590727</v>
+        <v>110.1310510590728</v>
       </c>
       <c r="E35" t="n">
-        <v>127.1020231981946</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25210,13 +25210,13 @@
         <v>212.7260929076276</v>
       </c>
       <c r="U35" t="n">
-        <v>13.9409895293829</v>
+        <v>253.0391405265871</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>128.1908936841914</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>117.8154648239328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>44.82841718337515</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>12.95708249806247</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>114.1940803859624</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>171.0069088760509</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>69.28719983217766</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -25314,25 +25314,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.6964642944951</v>
       </c>
       <c r="H37" t="n">
-        <v>146.1437838228612</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.4483691655308</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.31659142240446</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.6230152996731</v>
       </c>
       <c r="U37" t="n">
-        <v>30.04904408393801</v>
+        <v>282.5366738914061</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>71.73463858426044</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25393,22 +25393,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>117.7880800456725</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>127.1020231981948</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>141.2698276488959</v>
+        <v>141.2698276488958</v>
       </c>
       <c r="G38" t="n">
         <v>407.0803561673737</v>
       </c>
       <c r="H38" t="n">
-        <v>29.40821190349931</v>
+        <v>256.0752943405097</v>
       </c>
       <c r="I38" t="n">
         <v>61.74661632364075</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>226.6670824370107</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25472,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I39" t="n">
-        <v>12.95708249806247</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>114.1940803859624</v>
       </c>
       <c r="T39" t="n">
         <v>171.0069088760509</v>
       </c>
       <c r="U39" t="n">
-        <v>119.802416088686</v>
+        <v>207.8938438009787</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>40.65152476149001</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.79208841605939</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.31659142240446</v>
       </c>
       <c r="S40" t="n">
         <v>185.5382042379848</v>
       </c>
       <c r="T40" t="n">
-        <v>229.6230152996731</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>11.08100745497994</v>
+        <v>11.08100745497984</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.05027740231981</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>141.2698276488958</v>
       </c>
       <c r="G41" t="n">
-        <v>135.6246897309475</v>
+        <v>135.6246897309476</v>
       </c>
       <c r="H41" t="n">
-        <v>29.4082119034992</v>
+        <v>300.8638783399254</v>
       </c>
       <c r="I41" t="n">
         <v>61.74661632364075</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.7260929076276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>134.3361968844406</v>
+        <v>75.60662335564203</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>95.8333782449692</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.09606034340642</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>67.62855989776941</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.8154648239328</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>77.33396703945355</v>
       </c>
       <c r="I42" t="n">
         <v>12.95708249806247</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6964642944951</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.48340765084</v>
+        <v>146.1437838228612</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.31659142240446</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>11.08100745497983</v>
+        <v>282.5366738914061</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>211.2165648358364</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157.3916472570787</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>110.1310510590727</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>353.7691056352054</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>141.2698276488959</v>
       </c>
       <c r="G44" t="n">
         <v>407.0803561673737</v>
       </c>
       <c r="H44" t="n">
-        <v>300.8638783399254</v>
+        <v>29.40821190349931</v>
       </c>
       <c r="I44" t="n">
         <v>61.74661632364075</v>
@@ -25918,22 +25918,22 @@
         <v>120.3952073550576</v>
       </c>
       <c r="T44" t="n">
-        <v>212.7260929076276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0391405265871</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>95.8333782449692</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>121.0701355521787</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>117.7728212404735</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -25958,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8154648239328</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>77.33396703945355</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>12.95708249806247</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>114.1940803859624</v>
       </c>
       <c r="T45" t="n">
-        <v>171.0069088760509</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8938438009787</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>89.98103252992981</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26025,16 +26025,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>57.27916370113418</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>83.31659142240446</v>
       </c>
       <c r="S46" t="n">
-        <v>185.5382042379848</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5366738914061</v>
+        <v>230.0244271601395</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375766.0664890183</v>
+        <v>375766.0664890185</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>375766.0664890181</v>
+        <v>375766.0664890183</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>375766.0664890183</v>
+        <v>375766.0664890184</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>375766.0664890183</v>
+        <v>375766.0664890182</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>375766.0664890184</v>
+        <v>375766.0664890185</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>375766.0664890184</v>
+        <v>375766.0664890185</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375766.0664890186</v>
+        <v>375766.0664890184</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375766.0664890185</v>
+        <v>375766.0664890184</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467775.6470922441</v>
+        <v>467775.6470922442</v>
       </c>
       <c r="C2" t="n">
-        <v>467778.0855188096</v>
+        <v>467778.0855188097</v>
       </c>
       <c r="D2" t="n">
-        <v>467781.2152470055</v>
+        <v>467781.2152470053</v>
       </c>
       <c r="E2" t="n">
         <v>211912.1938395725</v>
       </c>
       <c r="F2" t="n">
+        <v>211912.1938395724</v>
+      </c>
+      <c r="G2" t="n">
         <v>211912.1938395725</v>
-      </c>
-      <c r="G2" t="n">
-        <v>211912.1938395724</v>
       </c>
       <c r="H2" t="n">
         <v>211912.1938395725</v>
       </c>
       <c r="I2" t="n">
-        <v>211912.1938395726</v>
+        <v>211912.1938395725</v>
       </c>
       <c r="J2" t="n">
-        <v>211912.1938395726</v>
+        <v>211912.1938395724</v>
       </c>
       <c r="K2" t="n">
         <v>211912.1938395725</v>
@@ -26346,7 +26346,7 @@
         <v>211912.1938395725</v>
       </c>
       <c r="M2" t="n">
-        <v>211912.1938395725</v>
+        <v>211912.1938395726</v>
       </c>
       <c r="N2" t="n">
         <v>211912.1938395725</v>
@@ -26374,7 +26374,7 @@
         <v>12886.26462898379</v>
       </c>
       <c r="E3" t="n">
-        <v>303891.1349255575</v>
+        <v>303891.1349255578</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>67647.83789862315</v>
+        <v>67647.83789862317</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>345774.9396895125</v>
       </c>
       <c r="C4" t="n">
-        <v>342417.7530922148</v>
+        <v>342417.7530922147</v>
       </c>
       <c r="D4" t="n">
         <v>338265.2204704066</v>
       </c>
       <c r="E4" t="n">
-        <v>17380.82395295774</v>
+        <v>17380.82395295776</v>
       </c>
       <c r="F4" t="n">
-        <v>17380.82395295774</v>
+        <v>17380.82395295776</v>
       </c>
       <c r="G4" t="n">
-        <v>17380.82395295774</v>
+        <v>17380.82395295775</v>
       </c>
       <c r="H4" t="n">
         <v>17380.82395295775</v>
@@ -26441,7 +26441,7 @@
         <v>17380.82395295776</v>
       </c>
       <c r="J4" t="n">
-        <v>17380.82395295777</v>
+        <v>17380.82395295776</v>
       </c>
       <c r="K4" t="n">
         <v>17380.82395295775</v>
@@ -26450,16 +26450,16 @@
         <v>17380.82395295775</v>
       </c>
       <c r="M4" t="n">
-        <v>17380.82395295778</v>
+        <v>17380.82395295775</v>
       </c>
       <c r="N4" t="n">
+        <v>17380.82395295776</v>
+      </c>
+      <c r="O4" t="n">
         <v>17380.82395295775</v>
       </c>
-      <c r="O4" t="n">
-        <v>17380.82395295777</v>
-      </c>
       <c r="P4" t="n">
-        <v>17380.82395295777</v>
+        <v>17380.82395295775</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>38159.46666611726</v>
       </c>
       <c r="E5" t="n">
-        <v>27083.05224086275</v>
+        <v>27083.05224086277</v>
       </c>
       <c r="F5" t="n">
-        <v>27083.05224086275</v>
+        <v>27083.05224086276</v>
       </c>
       <c r="G5" t="n">
         <v>27083.05224086275</v>
@@ -26496,22 +26496,22 @@
         <v>27083.05224086276</v>
       </c>
       <c r="K5" t="n">
-        <v>27083.05224086276</v>
+        <v>27083.05224086275</v>
       </c>
       <c r="L5" t="n">
         <v>27083.05224086275</v>
       </c>
       <c r="M5" t="n">
-        <v>27083.05224086277</v>
+        <v>27083.05224086275</v>
       </c>
       <c r="N5" t="n">
-        <v>27083.05224086275</v>
+        <v>27083.05224086276</v>
       </c>
       <c r="O5" t="n">
         <v>27083.05224086276</v>
       </c>
       <c r="P5" t="n">
-        <v>27083.05224086276</v>
+        <v>27083.05224086275</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90098.80255619565</v>
+        <v>-90102.98723292814</v>
       </c>
       <c r="C6" t="n">
-        <v>76853.71175638991</v>
+        <v>76849.53645822116</v>
       </c>
       <c r="D6" t="n">
-        <v>78470.26348149776</v>
+        <v>78466.10022074488</v>
       </c>
       <c r="E6" t="n">
-        <v>-136442.8172798055</v>
+        <v>-137431.0921613564</v>
       </c>
       <c r="F6" t="n">
-        <v>167448.317645752</v>
+        <v>166460.0427642015</v>
       </c>
       <c r="G6" t="n">
-        <v>167448.3176457519</v>
+        <v>166460.0427642014</v>
       </c>
       <c r="H6" t="n">
-        <v>167448.317645752</v>
+        <v>166460.0427642014</v>
       </c>
       <c r="I6" t="n">
-        <v>167448.317645752</v>
+        <v>166460.0427642014</v>
       </c>
       <c r="J6" t="n">
-        <v>167448.3176457521</v>
+        <v>166460.0427642013</v>
       </c>
       <c r="K6" t="n">
-        <v>167448.3176457519</v>
+        <v>166460.0427642014</v>
       </c>
       <c r="L6" t="n">
-        <v>167448.317645752</v>
+        <v>166460.0427642014</v>
       </c>
       <c r="M6" t="n">
-        <v>99800.47974712879</v>
+        <v>98812.20486557831</v>
       </c>
       <c r="N6" t="n">
-        <v>167448.317645752</v>
+        <v>166460.0427642014</v>
       </c>
       <c r="O6" t="n">
-        <v>167448.3176457519</v>
+        <v>166460.0427642014</v>
       </c>
       <c r="P6" t="n">
-        <v>167448.317645752</v>
+        <v>166460.0427642014</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>207.8837920237277</v>
       </c>
       <c r="E3" t="n">
-        <v>485.2544826389012</v>
+        <v>485.2544826389014</v>
       </c>
       <c r="F3" t="n">
         <v>485.2544826389012</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>271.4556664364263</v>
+      </c>
+      <c r="F4" t="n">
+        <v>271.4556664364262</v>
+      </c>
+      <c r="G4" t="n">
         <v>271.4556664364261</v>
-      </c>
-      <c r="F4" t="n">
-        <v>271.455666436426</v>
-      </c>
-      <c r="G4" t="n">
-        <v>271.455666436426</v>
       </c>
       <c r="H4" t="n">
         <v>271.4556664364261</v>
@@ -26816,22 +26816,22 @@
         <v>271.4556664364262</v>
       </c>
       <c r="K4" t="n">
-        <v>271.4556664364262</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="L4" t="n">
         <v>271.4556664364261</v>
       </c>
       <c r="M4" t="n">
-        <v>271.4556664364263</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="N4" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="O4" t="n">
         <v>271.4556664364262</v>
       </c>
       <c r="P4" t="n">
-        <v>271.4556664364262</v>
+        <v>271.4556664364261</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>15.04677017071626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.3706906151735</v>
+        <v>277.3706906151738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>271.4556664364262</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>7.939264924832774</v>
       </c>
       <c r="I5" t="n">
-        <v>29.88683129643508</v>
+        <v>29.88683129643507</v>
       </c>
       <c r="J5" t="n">
         <v>65.79618566229962</v>
@@ -31296,7 +31296,7 @@
         <v>122.3361942756547</v>
       </c>
       <c r="M5" t="n">
-        <v>136.1225877927541</v>
+        <v>136.1225877927542</v>
       </c>
       <c r="N5" t="n">
         <v>138.325193575025</v>
@@ -31360,7 +31360,7 @@
         <v>0.4147815187027039</v>
       </c>
       <c r="H6" t="n">
-        <v>4.005916246418219</v>
+        <v>4.00591624641822</v>
       </c>
       <c r="I6" t="n">
         <v>14.2808549202466</v>
@@ -31393,7 +31393,7 @@
         <v>25.7528385033135</v>
       </c>
       <c r="S6" t="n">
-        <v>7.704384788183989</v>
+        <v>7.70438478818399</v>
       </c>
       <c r="T6" t="n">
         <v>1.671860595121863</v>
@@ -31454,13 +31454,13 @@
         <v>51.69928943252704</v>
       </c>
       <c r="M7" t="n">
-        <v>54.50965193133566</v>
+        <v>54.50965193133567</v>
       </c>
       <c r="N7" t="n">
         <v>53.2135342434712</v>
       </c>
       <c r="O7" t="n">
-        <v>49.15131173394463</v>
+        <v>49.15131173394464</v>
       </c>
       <c r="P7" t="n">
         <v>42.05743833987644</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.950771789503119</v>
+        <v>1.95077178950312</v>
       </c>
       <c r="H11" t="n">
-        <v>19.97834158924882</v>
+        <v>19.97834158924883</v>
       </c>
       <c r="I11" t="n">
-        <v>75.20712941481906</v>
+        <v>75.20712941481911</v>
       </c>
       <c r="J11" t="n">
-        <v>165.5693171693405</v>
+        <v>165.5693171693406</v>
       </c>
       <c r="K11" t="n">
-        <v>248.1454870190076</v>
+        <v>248.1454870190077</v>
       </c>
       <c r="L11" t="n">
-        <v>307.8464191720137</v>
+        <v>307.8464191720138</v>
       </c>
       <c r="M11" t="n">
-        <v>342.5384569835898</v>
+        <v>342.5384569835899</v>
       </c>
       <c r="N11" t="n">
-        <v>348.0810873305156</v>
+        <v>348.0810873305157</v>
       </c>
       <c r="O11" t="n">
-        <v>328.6831003486439</v>
+        <v>328.683100348644</v>
       </c>
       <c r="P11" t="n">
-        <v>280.5234217952856</v>
+        <v>280.5234217952857</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.6614070837051</v>
+        <v>210.6614070837052</v>
       </c>
       <c r="R11" t="n">
-        <v>122.5401684223754</v>
+        <v>122.5401684223755</v>
       </c>
       <c r="S11" t="n">
-        <v>44.45321215330237</v>
+        <v>44.45321215330239</v>
       </c>
       <c r="T11" t="n">
-        <v>8.539503508549908</v>
+        <v>8.539503508549911</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1560617431602495</v>
+        <v>0.1560617431602496</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04375492492141</v>
+        <v>1.043754924921411</v>
       </c>
       <c r="H12" t="n">
         <v>10.08047519595152</v>
       </c>
       <c r="I12" t="n">
-        <v>35.93629895014505</v>
+        <v>35.93629895014507</v>
       </c>
       <c r="J12" t="n">
-        <v>98.61195104268465</v>
+        <v>98.61195104268469</v>
       </c>
       <c r="K12" t="n">
-        <v>168.5435310124191</v>
+        <v>168.5435310124192</v>
       </c>
       <c r="L12" t="n">
-        <v>226.6275770098001</v>
+        <v>226.6275770098002</v>
       </c>
       <c r="M12" t="n">
-        <v>264.4636930382011</v>
+        <v>264.4636930382013</v>
       </c>
       <c r="N12" t="n">
-        <v>271.4632600566434</v>
+        <v>271.4632600566435</v>
       </c>
       <c r="O12" t="n">
-        <v>248.3358482991743</v>
+        <v>248.3358482991744</v>
       </c>
       <c r="P12" t="n">
-        <v>199.3114119352121</v>
+        <v>199.3114119352122</v>
       </c>
       <c r="Q12" t="n">
         <v>133.2344005917225</v>
       </c>
       <c r="R12" t="n">
-        <v>64.80436279468196</v>
+        <v>64.80436279468199</v>
       </c>
       <c r="S12" t="n">
-        <v>19.38728994316741</v>
+        <v>19.38728994316742</v>
       </c>
       <c r="T12" t="n">
-        <v>4.207064807029718</v>
+        <v>4.207064807029719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06866808716588228</v>
+        <v>0.06866808716588231</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8750490670537562</v>
+        <v>0.8750490670537566</v>
       </c>
       <c r="H13" t="n">
-        <v>7.779981705259766</v>
+        <v>7.779981705259769</v>
       </c>
       <c r="I13" t="n">
-        <v>26.31511194376206</v>
+        <v>26.31511194376207</v>
       </c>
       <c r="J13" t="n">
-        <v>61.86596904070056</v>
+        <v>61.86596904070059</v>
       </c>
       <c r="K13" t="n">
         <v>101.6647916086091</v>
@@ -31928,31 +31928,31 @@
         <v>130.0959312963376</v>
       </c>
       <c r="M13" t="n">
-        <v>137.1679187564356</v>
+        <v>137.1679187564357</v>
       </c>
       <c r="N13" t="n">
-        <v>133.9063722337808</v>
+        <v>133.9063722337809</v>
       </c>
       <c r="O13" t="n">
-        <v>123.6842081322891</v>
+        <v>123.6842081322892</v>
       </c>
       <c r="P13" t="n">
-        <v>105.8332071643924</v>
+        <v>105.8332071643925</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.27342687847408</v>
+        <v>73.27342687847411</v>
       </c>
       <c r="R13" t="n">
-        <v>39.34538805134434</v>
+        <v>39.34538805134436</v>
       </c>
       <c r="S13" t="n">
-        <v>15.24971874129136</v>
+        <v>15.24971874129137</v>
       </c>
       <c r="T13" t="n">
-        <v>3.738846013775139</v>
+        <v>3.738846013775141</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04772994911202312</v>
+        <v>0.04772994911202314</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>342.5384569835898</v>
       </c>
       <c r="N41" t="n">
-        <v>348.0810873305156</v>
+        <v>348.0810873305155</v>
       </c>
       <c r="O41" t="n">
         <v>328.6831003486439</v>
@@ -34368,7 +34368,7 @@
         <v>75.20712941481906</v>
       </c>
       <c r="J44" t="n">
-        <v>165.5693171693408</v>
+        <v>165.5693171693405</v>
       </c>
       <c r="K44" t="n">
         <v>248.1454870190076</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>47.88947922699441</v>
+        <v>47.88947922699447</v>
       </c>
       <c r="K11" t="n">
-        <v>105.0870838397702</v>
+        <v>105.0870838397703</v>
       </c>
       <c r="L11" t="n">
-        <v>154.598249441522</v>
+        <v>154.5982494415221</v>
       </c>
       <c r="M11" t="n">
-        <v>192.8134053858626</v>
+        <v>192.8134053858627</v>
       </c>
       <c r="N11" t="n">
-        <v>198.9625959927315</v>
+        <v>198.9625959927317</v>
       </c>
       <c r="O11" t="n">
-        <v>179.1192629245475</v>
+        <v>179.1192629245476</v>
       </c>
       <c r="P11" t="n">
-        <v>130.2219745543604</v>
+        <v>130.2219745543605</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.16270866531292</v>
+        <v>66.162708665313</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>16.16749370935131</v>
+        <v>16.16749370935135</v>
       </c>
       <c r="K12" t="n">
-        <v>78.94659567908577</v>
+        <v>78.94659567908586</v>
       </c>
       <c r="L12" t="n">
-        <v>136.5672301528818</v>
+        <v>136.567230152882</v>
       </c>
       <c r="M12" t="n">
-        <v>271.4556664364261</v>
+        <v>172.0765709888893</v>
       </c>
       <c r="N12" t="n">
-        <v>186.0911472024768</v>
+        <v>186.0911472024769</v>
       </c>
       <c r="O12" t="n">
-        <v>155.6482894102854</v>
+        <v>155.6482894102855</v>
       </c>
       <c r="P12" t="n">
         <v>112.2280471158975</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.62380020093072</v>
+        <v>217.1293857722339</v>
       </c>
       <c r="R12" t="n">
-        <v>41.12649012376586</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.79148156854149</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>17.80617379776112</v>
+        <v>184.3264492954191</v>
       </c>
       <c r="L13" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="M13" t="n">
-        <v>271.4556664364261</v>
+        <v>220.8893243031659</v>
       </c>
       <c r="N13" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364263</v>
       </c>
       <c r="O13" t="n">
-        <v>194.5801008230737</v>
+        <v>33.6874581385914</v>
       </c>
       <c r="P13" t="n">
-        <v>16.3100045324465</v>
+        <v>16.31000453244654</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>76.73019088862659</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.9241419220103</v>
+        <v>149.924141922011</v>
       </c>
       <c r="K15" t="n">
         <v>78.94659567908577</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.79148156854149</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>17.80617379776112</v>
+        <v>184.3264492954191</v>
       </c>
       <c r="L16" t="n">
-        <v>271.455666436426</v>
+        <v>59.85130689395751</v>
       </c>
       <c r="M16" t="n">
-        <v>271.455666436426</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="N16" t="n">
-        <v>271.455666436426</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="O16" t="n">
-        <v>117.8499099344472</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="P16" t="n">
         <v>16.3100045324465</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.73019088862657</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.55962268806104</v>
+        <v>149.9241419220106</v>
       </c>
       <c r="K18" t="n">
         <v>78.94659567908577</v>
@@ -35974,7 +35974,7 @@
         <v>172.0765709888892</v>
       </c>
       <c r="N18" t="n">
-        <v>271.455666436426</v>
+        <v>186.0911472024768</v>
       </c>
       <c r="O18" t="n">
         <v>155.6482894102854</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>17.80617379776112</v>
+        <v>184.3264492954191</v>
       </c>
       <c r="L19" t="n">
-        <v>271.455666436426</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="M19" t="n">
-        <v>149.6413915029887</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="N19" t="n">
-        <v>271.455666436426</v>
+        <v>220.8893243031656</v>
       </c>
       <c r="O19" t="n">
-        <v>271.455666436426</v>
+        <v>33.68745813859134</v>
       </c>
       <c r="P19" t="n">
         <v>16.3100045324465</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.9241419220106</v>
+        <v>16.16749370935131</v>
       </c>
       <c r="K21" t="n">
         <v>78.94659567908577</v>
@@ -36220,10 +36220,10 @@
         <v>112.2280471158975</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.24624743580848</v>
+        <v>217.1293857722335</v>
       </c>
       <c r="R21" t="n">
-        <v>41.12649012376586</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>184.3264492954191</v>
+        <v>17.80617379776112</v>
       </c>
       <c r="L22" t="n">
         <v>42.42089171353268</v>
@@ -36290,16 +36290,16 @@
         <v>271.4556664364261</v>
       </c>
       <c r="N22" t="n">
-        <v>50.91076833137924</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="O22" t="n">
-        <v>222.090550063367</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="P22" t="n">
-        <v>226.9202433023506</v>
+        <v>200.2606952105291</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.73019088862657</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>112.2280471158975</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.0028956484681</v>
+        <v>217.129385772234</v>
       </c>
       <c r="R24" t="n">
-        <v>41.12649012376586</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.79148156854149</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>93.23519201867587</v>
+        <v>130.5160654454005</v>
       </c>
       <c r="L25" t="n">
-        <v>42.42089171353268</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="M25" t="n">
-        <v>271.4556664364262</v>
+        <v>46.86615919049233</v>
       </c>
       <c r="N25" t="n">
-        <v>271.4556664364262</v>
+        <v>50.91076833137924</v>
       </c>
       <c r="O25" t="n">
         <v>271.4556664364262</v>
       </c>
       <c r="P25" t="n">
-        <v>16.3100045324465</v>
+        <v>226.9202433023506</v>
       </c>
       <c r="Q25" t="n">
         <v>76.73019088862657</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16.16749370935131</v>
+        <v>191.0506320457769</v>
       </c>
       <c r="K27" t="n">
         <v>78.94659567908577</v>
@@ -36694,7 +36694,7 @@
         <v>112.2280471158975</v>
       </c>
       <c r="Q27" t="n">
-        <v>217.129385772234</v>
+        <v>42.24624743580848</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>184.3264492954191</v>
       </c>
       <c r="L28" t="n">
+        <v>59.85130689395751</v>
+      </c>
+      <c r="M28" t="n">
         <v>271.4556664364262</v>
       </c>
-      <c r="M28" t="n">
-        <v>46.86615919049233</v>
-      </c>
       <c r="N28" t="n">
-        <v>50.91076833137924</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="O28" t="n">
-        <v>217.6452825864077</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="P28" t="n">
-        <v>226.9202433023506</v>
+        <v>16.3100045324465</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.73019088862657</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>136.5672301528818</v>
       </c>
       <c r="M30" t="n">
-        <v>172.0765709888892</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="N30" t="n">
-        <v>186.0911472024768</v>
+        <v>261.5951900913651</v>
       </c>
       <c r="O30" t="n">
         <v>155.6482894102854</v>
@@ -36931,10 +36931,10 @@
         <v>112.2280471158975</v>
       </c>
       <c r="Q30" t="n">
-        <v>176.0028956484679</v>
+        <v>42.24624743580848</v>
       </c>
       <c r="R30" t="n">
-        <v>41.12649012376586</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>184.3264492954191</v>
+        <v>17.80617379776112</v>
       </c>
       <c r="L31" t="n">
-        <v>42.42089171353268</v>
+        <v>226.3715823916151</v>
       </c>
       <c r="M31" t="n">
-        <v>271.4556664364262</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="N31" t="n">
-        <v>212.1558907282243</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="O31" t="n">
-        <v>271.4556664364262</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="P31" t="n">
         <v>16.3100045324465</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.73019088862657</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>105.6861128118271</v>
+        <v>191.0506320457765</v>
       </c>
       <c r="K33" t="n">
         <v>78.94659567908577</v>
@@ -37159,7 +37159,7 @@
         <v>172.0765709888892</v>
       </c>
       <c r="N33" t="n">
-        <v>271.4556664364261</v>
+        <v>186.0911472024768</v>
       </c>
       <c r="O33" t="n">
         <v>155.6482894102854</v>
@@ -37229,25 +37229,25 @@
         <v>31.79148156854149</v>
       </c>
       <c r="K34" t="n">
-        <v>17.80617379776112</v>
+        <v>184.3264492954191</v>
       </c>
       <c r="L34" t="n">
-        <v>117.8499099344472</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="M34" t="n">
-        <v>271.4556664364261</v>
+        <v>265.8280336232505</v>
       </c>
       <c r="N34" t="n">
         <v>271.4556664364261</v>
       </c>
       <c r="O34" t="n">
-        <v>271.4556664364261</v>
+        <v>33.68745813859134</v>
       </c>
       <c r="P34" t="n">
         <v>16.3100045324465</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.73019088862657</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>105.6861128118276</v>
+        <v>16.16749370935131</v>
       </c>
       <c r="K36" t="n">
         <v>78.94659567908577</v>
@@ -37396,7 +37396,7 @@
         <v>172.0765709888892</v>
       </c>
       <c r="N36" t="n">
-        <v>271.4556664364263</v>
+        <v>186.0911472024768</v>
       </c>
       <c r="O36" t="n">
         <v>155.6482894102854</v>
@@ -37405,7 +37405,7 @@
         <v>112.2280471158975</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.24624743580848</v>
+        <v>217.1293857722335</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>17.80617379776112</v>
       </c>
       <c r="L37" t="n">
-        <v>271.4556664364263</v>
+        <v>42.42089171353268</v>
       </c>
       <c r="M37" t="n">
-        <v>46.86615919049233</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="N37" t="n">
-        <v>208.5593692991039</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="O37" t="n">
-        <v>271.4556664364263</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="P37" t="n">
-        <v>226.9202433023506</v>
+        <v>168.4692136419876</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.9241419220106</v>
+        <v>16.16749370935131</v>
       </c>
       <c r="K39" t="n">
         <v>78.94659567908577</v>
@@ -37642,10 +37642,10 @@
         <v>112.2280471158975</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.24624743580848</v>
+        <v>217.129385772234</v>
       </c>
       <c r="R39" t="n">
-        <v>41.12649012376586</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>31.79148156854149</v>
       </c>
       <c r="K40" t="n">
-        <v>17.80617379776112</v>
+        <v>184.3264492954191</v>
       </c>
       <c r="L40" t="n">
-        <v>271.4556664364261</v>
+        <v>189.0978427346243</v>
       </c>
       <c r="M40" t="n">
-        <v>46.86615919049233</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="N40" t="n">
-        <v>271.4556664364261</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="O40" t="n">
-        <v>271.4556664364261</v>
+        <v>33.68745813859134</v>
       </c>
       <c r="P40" t="n">
-        <v>119.0852368449429</v>
+        <v>16.3100045324465</v>
       </c>
       <c r="Q40" t="n">
         <v>76.73019088862657</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6861128118275</v>
+        <v>16.16749370935131</v>
       </c>
       <c r="K42" t="n">
         <v>78.94659567908577</v>
@@ -37870,7 +37870,7 @@
         <v>172.0765709888892</v>
       </c>
       <c r="N42" t="n">
-        <v>271.4556664364262</v>
+        <v>186.0911472024768</v>
       </c>
       <c r="O42" t="n">
         <v>155.6482894102854</v>
@@ -37879,7 +37879,7 @@
         <v>112.2280471158975</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.24624743580848</v>
+        <v>217.1293857722338</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.79148156854149</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>184.3264492954191</v>
+        <v>116.5367969693707</v>
       </c>
       <c r="L43" t="n">
-        <v>262.5839919064929</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="M43" t="n">
-        <v>46.86615919049233</v>
+        <v>271.4556664364262</v>
       </c>
       <c r="N43" t="n">
         <v>50.91076833137924</v>
@@ -37955,10 +37955,10 @@
         <v>271.4556664364262</v>
       </c>
       <c r="P43" t="n">
-        <v>226.9202433023506</v>
+        <v>16.3100045324465</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>76.73019088862657</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>47.88947922699471</v>
+        <v>47.88947922699441</v>
       </c>
       <c r="K44" t="n">
         <v>105.0870838397702</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.924141922011</v>
+        <v>16.16749370935131</v>
       </c>
       <c r="K45" t="n">
         <v>78.94659567908577</v>
@@ -38113,7 +38113,7 @@
         <v>155.6482894102854</v>
       </c>
       <c r="P45" t="n">
-        <v>112.2280471158975</v>
+        <v>245.9846953285566</v>
       </c>
       <c r="Q45" t="n">
         <v>42.24624743580848</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.79148156854149</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>184.3264492954191</v>
       </c>
       <c r="L46" t="n">
-        <v>185.8538010178662</v>
+        <v>87.009276421888</v>
       </c>
       <c r="M46" t="n">
-        <v>46.86615919049233</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="N46" t="n">
-        <v>50.91076833137924</v>
+        <v>271.4556664364261</v>
       </c>
       <c r="O46" t="n">
-        <v>271.4556664364262</v>
+        <v>33.68745813859134</v>
       </c>
       <c r="P46" t="n">
         <v>226.9202433023506</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.73019088862657</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
